--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_11_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_11_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>567866.5663530544</v>
+        <v>565693.8167435017</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6355167.986064767</v>
+        <v>6355167.986064766</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>331.0719604558766</v>
+        <v>73.84364384432459</v>
       </c>
     </row>
     <row r="3">
@@ -819,25 +819,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>67.21282185759476</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>190.894216701892</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>251.8172878358651</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>398.8460216560019</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1056,10 +1056,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>31.00662041330823</v>
+        <v>74.55853910711936</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>278.2270124820744</v>
+        <v>236.805171568455</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1144,7 +1144,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
@@ -1293,25 +1293,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>138.3792129943166</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>142.0902352657462</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1372,22 +1372,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>271.049693395299</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>417.9185881203346</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>396.2852707095142</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>274.9879964839001</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>57.78140969865706</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.5421930678769</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1533,7 +1533,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704932</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1548,7 +1548,7 @@
         <v>134.1218350502583</v>
       </c>
       <c r="I13" t="n">
-        <v>72.95392402363973</v>
+        <v>72.95392402363989</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1618,13 +1618,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>396.2852707095142</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>172.517010778295</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>57.78140969865706</v>
       </c>
       <c r="T14" t="n">
-        <v>213.0575106034447</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.5421930678769</v>
       </c>
       <c r="V14" t="n">
-        <v>279.4223228466406</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1782,10 +1782,10 @@
         <v>163.4425760007192</v>
       </c>
       <c r="H16" t="n">
-        <v>134.1218350502583</v>
+        <v>134.1218350502585</v>
       </c>
       <c r="I16" t="n">
-        <v>72.95392402364033</v>
+        <v>72.95392402363973</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1858,7 +1858,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8523974301373</v>
+        <v>396.2852707095142</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>57.78140969865706</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>331.5070810714656</v>
       </c>
     </row>
     <row r="18">
@@ -2067,7 +2067,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199223</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>258.1926481096585</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>57.78140969865706</v>
       </c>
       <c r="T20" t="n">
-        <v>213.0575106034447</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.5421930678769</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>323.5890893176366</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>57.78140969865706</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>115.8983434442229</v>
+        <v>173.6797531428793</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -2809,7 +2809,7 @@
         <v>396.2852707095142</v>
       </c>
       <c r="H29" t="n">
-        <v>31.89555936261143</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.5421930678769</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>134.3441468602449</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
@@ -3046,7 +3046,7 @@
         <v>396.2852707095142</v>
       </c>
       <c r="H32" t="n">
-        <v>274.9879964839001</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.5421930678769</v>
       </c>
       <c r="V32" t="n">
-        <v>115.8983434442229</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>190.3044050812158</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3277,10 +3277,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>393.4045779449631</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>135.3102043622597</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.5421930678769</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>57.78140969865706</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>213.0575106034447</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>99.783802391053</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>397.9701472071121</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3672,7 +3672,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978615</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.4425760007192</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>149.061035098121</v>
+        <v>149.0610350981213</v>
       </c>
       <c r="T40" t="n">
         <v>241.3151108196531</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>18.6737343218394</v>
+        <v>6.949261013487605</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3903,13 +3903,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>164.2192128704932</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978615</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.4425760007192</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>172.2514198520821</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -3991,10 +3991,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.2852707095142</v>
+        <v>56.2991199266209</v>
       </c>
       <c r="H44" t="n">
-        <v>274.9879964839001</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>57.78140969865706</v>
       </c>
       <c r="T44" t="n">
-        <v>213.0575106034447</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.5421930678769</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.8932738874814</v>
+        <v>837.5030339308241</v>
       </c>
       <c r="C2" t="n">
-        <v>119.7912051113087</v>
+        <v>408.9213596680925</v>
       </c>
       <c r="D2" t="n">
-        <v>87.92182432615731</v>
+        <v>377.0519788829411</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>347.3176380816403</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
         <v>34.36045797446834</v>
@@ -4330,25 +4330,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>267.8706684926505</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="W2" t="n">
-        <v>929.7110254252771</v>
+        <v>1353.494203032709</v>
       </c>
       <c r="X2" t="n">
-        <v>510.5685620045878</v>
+        <v>1338.392143652423</v>
       </c>
       <c r="Y2" t="n">
-        <v>176.1524403319851</v>
+        <v>1263.802604415732</v>
       </c>
     </row>
     <row r="3">
@@ -4394,10 +4394,10 @@
         <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G3" t="n">
         <v>75.67932078539587</v>
@@ -4406,22 +4406,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="N3" t="n">
-        <v>384.5656667282782</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="O3" t="n">
         <v>739.9048540962709</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.2867191875922</v>
+        <v>1011.135564714323</v>
       </c>
       <c r="C4" t="n">
-        <v>546.2867191875922</v>
+        <v>838.5738531975477</v>
       </c>
       <c r="D4" t="n">
-        <v>380.4087263891149</v>
+        <v>672.6958603990704</v>
       </c>
       <c r="E4" t="n">
-        <v>210.6507226398521</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4497,10 +4497,10 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4524,16 +4524,16 @@
         <v>1675.765608785789</v>
       </c>
       <c r="V4" t="n">
-        <v>1482.943167672767</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="W4" t="n">
-        <v>1210.916763259059</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="X4" t="n">
-        <v>965.5250085924711</v>
+        <v>1430.373854119202</v>
       </c>
       <c r="Y4" t="n">
-        <v>738.1053379065793</v>
+        <v>1202.95418343331</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>548.3728793740404</v>
+        <v>1571.10956023096</v>
       </c>
       <c r="C5" t="n">
-        <v>119.7912051113087</v>
+        <v>1142.527885968228</v>
       </c>
       <c r="D5" t="n">
-        <v>87.92182432615731</v>
+        <v>713.9462117054968</v>
       </c>
       <c r="E5" t="n">
-        <v>58.18748352485655</v>
+        <v>459.5853149015927</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="G5" t="n">
         <v>34.36045797446834</v>
@@ -4597,22 +4597,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T5" t="n">
-        <v>1393.464329137293</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U5" t="n">
-        <v>1393.464329137293</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V5" t="n">
-        <v>1393.464329137293</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W5" t="n">
-        <v>1392.64927858873</v>
+        <v>1612.716505715692</v>
       </c>
       <c r="X5" t="n">
-        <v>1377.547219208445</v>
+        <v>1597.614446335406</v>
       </c>
       <c r="Y5" t="n">
-        <v>974.6724498589482</v>
+        <v>1593.368726675464</v>
       </c>
     </row>
     <row r="6">
@@ -4625,7 +4625,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D6" t="n">
         <v>338.5686635760967</v>
@@ -4634,37 +4634,37 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J6" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>358.5019935678207</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>358.5019935678207</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M6" t="n">
-        <v>358.5019935678207</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N6" t="n">
-        <v>358.5019935678207</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q6" t="n">
         <v>1580.010651986078</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>542.1413766661235</v>
+        <v>597.8550708599936</v>
       </c>
       <c r="C7" t="n">
-        <v>369.5796651493484</v>
+        <v>597.8550708599936</v>
       </c>
       <c r="D7" t="n">
-        <v>203.7016723508711</v>
+        <v>597.8550708599936</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>33.94366860160834</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M7" t="n">
-        <v>453.9965675465116</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N7" t="n">
-        <v>874.0494664914149</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O7" t="n">
-        <v>1293.718715717196</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P7" t="n">
-        <v>1641.225609687538</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q7" t="n">
         <v>1697.183430080417</v>
@@ -4752,25 +4752,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T7" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U7" t="n">
-        <v>1238.091239336891</v>
+        <v>1397.332608038895</v>
       </c>
       <c r="V7" t="n">
-        <v>1238.091239336891</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="W7" t="n">
-        <v>1206.77142073759</v>
+        <v>1035.065444245568</v>
       </c>
       <c r="X7" t="n">
-        <v>961.3796660710025</v>
+        <v>789.6736895789807</v>
       </c>
       <c r="Y7" t="n">
-        <v>733.9599953851107</v>
+        <v>789.6736895789807</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400.4118020839785</v>
+        <v>763.0287521501522</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>523.8316091517128</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>491.9622283665614</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
@@ -4807,22 +4807,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q8" t="n">
         <v>1528.02936532736</v>
@@ -4840,16 +4840,16 @@
         <v>1613.531556264254</v>
       </c>
       <c r="V8" t="n">
-        <v>1250.914606198081</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W8" t="n">
-        <v>1250.099555649518</v>
+        <v>1612.716505715692</v>
       </c>
       <c r="X8" t="n">
-        <v>830.9570922288289</v>
+        <v>1193.574042295003</v>
       </c>
       <c r="Y8" t="n">
-        <v>826.7113725688863</v>
+        <v>1189.32832263506</v>
       </c>
     </row>
     <row r="9">
@@ -4862,7 +4862,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D9" t="n">
         <v>338.5686635760967</v>
@@ -4871,40 +4871,40 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L9" t="n">
-        <v>739.9048540962709</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N9" t="n">
-        <v>1580.010651986078</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="O9" t="n">
-        <v>1580.010651986078</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P9" t="n">
-        <v>1580.010651986078</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R9" t="n">
         <v>1697.183430080417</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>173.7206514241503</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I10" t="n">
         <v>33.94366860160834</v>
@@ -4965,19 +4965,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L10" t="n">
-        <v>813.4916901053949</v>
+        <v>538.7332355342593</v>
       </c>
       <c r="M10" t="n">
-        <v>1181.483761245743</v>
+        <v>538.7332355342593</v>
       </c>
       <c r="N10" t="n">
-        <v>1181.483761245743</v>
+        <v>958.7861344791625</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>1378.455383704944</v>
       </c>
       <c r="P10" t="n">
         <v>1528.990655216085</v>
@@ -4995,19 +4995,19 @@
         <v>1675.765608785789</v>
       </c>
       <c r="U10" t="n">
-        <v>1675.765608785789</v>
+        <v>1397.332608038895</v>
       </c>
       <c r="V10" t="n">
-        <v>1675.765608785789</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="W10" t="n">
-        <v>1675.765608785789</v>
+        <v>838.3506954956167</v>
       </c>
       <c r="X10" t="n">
-        <v>1532.240118618369</v>
+        <v>592.9589408290292</v>
       </c>
       <c r="Y10" t="n">
-        <v>1304.820447932477</v>
+        <v>365.5392701431375</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2184.664212210788</v>
+        <v>1039.737036436687</v>
       </c>
       <c r="C11" t="n">
-        <v>1746.521739394212</v>
+        <v>765.949467350526</v>
       </c>
       <c r="D11" t="n">
-        <v>1310.611954568656</v>
+        <v>765.949467350526</v>
       </c>
       <c r="E11" t="n">
-        <v>888.4719665683181</v>
+        <v>765.949467350526</v>
       </c>
       <c r="F11" t="n">
-        <v>460.6045369775259</v>
+        <v>338.0820377597337</v>
       </c>
       <c r="G11" t="n">
-        <v>60.31638474569325</v>
+        <v>338.0820377597337</v>
       </c>
       <c r="H11" t="n">
-        <v>60.31638474569325</v>
+        <v>60.31638474569324</v>
       </c>
       <c r="I11" t="n">
         <v>101.837454701092</v>
@@ -5059,7 +5059,7 @@
         <v>1507.660566463248</v>
       </c>
       <c r="P11" t="n">
-        <v>2254.075827691202</v>
+        <v>2114.399461280034</v>
       </c>
       <c r="Q11" t="n">
         <v>2778.346437009021</v>
@@ -5068,25 +5068,25 @@
         <v>3015.819237284662</v>
       </c>
       <c r="S11" t="n">
-        <v>3015.819237284662</v>
+        <v>2957.454176982988</v>
       </c>
       <c r="T11" t="n">
-        <v>3015.819237284662</v>
+        <v>2957.454176982988</v>
       </c>
       <c r="U11" t="n">
-        <v>3015.819237284662</v>
+        <v>2698.320648631597</v>
       </c>
       <c r="V11" t="n">
-        <v>3015.819237284662</v>
+        <v>2698.320648631597</v>
       </c>
       <c r="W11" t="n">
-        <v>2610.963782695696</v>
+        <v>2293.46519404263</v>
       </c>
       <c r="X11" t="n">
-        <v>2610.963782695696</v>
+        <v>1874.322730621941</v>
       </c>
       <c r="Y11" t="n">
-        <v>2610.963782695696</v>
+        <v>1466.036606921594</v>
       </c>
     </row>
     <row r="12">
@@ -5111,10 +5111,10 @@
         <v>181.1092075111625</v>
       </c>
       <c r="G12" t="n">
-        <v>96.31784846322563</v>
+        <v>96.31784846322562</v>
       </c>
       <c r="H12" t="n">
-        <v>60.31638474569325</v>
+        <v>60.31638474569324</v>
       </c>
       <c r="I12" t="n">
         <v>106.4153045950005</v>
@@ -5123,22 +5123,22 @@
         <v>485.951877831851</v>
       </c>
       <c r="K12" t="n">
-        <v>801.4710574797637</v>
+        <v>579.9184609329182</v>
       </c>
       <c r="L12" t="n">
-        <v>927.8207246557511</v>
+        <v>706.2681281089056</v>
       </c>
       <c r="M12" t="n">
-        <v>1075.264826721336</v>
+        <v>853.7122301744907</v>
       </c>
       <c r="N12" t="n">
-        <v>1226.611335434979</v>
+        <v>1005.058738888133</v>
       </c>
       <c r="O12" t="n">
-        <v>1365.063822967466</v>
+        <v>1143.511226420621</v>
       </c>
       <c r="P12" t="n">
-        <v>1476.184150399203</v>
+        <v>1254.631553852358</v>
       </c>
       <c r="Q12" t="n">
         <v>1550.465146530704</v>
@@ -5178,49 +5178,49 @@
         <v>1119.482091368268</v>
       </c>
       <c r="C13" t="n">
-        <v>946.9203798514931</v>
+        <v>946.9203798514926</v>
       </c>
       <c r="D13" t="n">
-        <v>781.0423870530151</v>
+        <v>781.0423870530153</v>
       </c>
       <c r="E13" t="n">
-        <v>611.2843833037524</v>
+        <v>611.2843833037525</v>
       </c>
       <c r="F13" t="n">
-        <v>434.5773292655086</v>
+        <v>434.5773292655088</v>
       </c>
       <c r="G13" t="n">
-        <v>269.4838181536711</v>
+        <v>269.4838181536712</v>
       </c>
       <c r="H13" t="n">
-        <v>134.0072170928041</v>
+        <v>134.0072170928042</v>
       </c>
       <c r="I13" t="n">
-        <v>60.31638474569325</v>
+        <v>60.31638474569324</v>
       </c>
       <c r="J13" t="n">
-        <v>94.80797090192894</v>
+        <v>181.3876560666188</v>
       </c>
       <c r="K13" t="n">
-        <v>426.2466969243558</v>
+        <v>512.8263820890456</v>
       </c>
       <c r="L13" t="n">
-        <v>857.8214210433379</v>
+        <v>1003.567496980201</v>
       </c>
       <c r="M13" t="n">
-        <v>1393.77930392336</v>
+        <v>1539.525379860223</v>
       </c>
       <c r="N13" t="n">
-        <v>1910.693741614619</v>
+        <v>2056.439817551482</v>
       </c>
       <c r="O13" t="n">
-        <v>2399.319552696791</v>
+        <v>2545.065628633654</v>
       </c>
       <c r="P13" t="n">
-        <v>2805.830697949447</v>
+        <v>2951.57677388631</v>
       </c>
       <c r="Q13" t="n">
-        <v>3014.874957973236</v>
+        <v>3014.874957973235</v>
       </c>
       <c r="R13" t="n">
         <v>3015.819237284662</v>
@@ -5229,7 +5229,7 @@
         <v>2865.252535165348</v>
       </c>
       <c r="T13" t="n">
-        <v>2621.49989797378</v>
+        <v>2621.499897973779</v>
       </c>
       <c r="U13" t="n">
         <v>2343.094047983012</v>
@@ -5238,7 +5238,7 @@
         <v>2056.138539853443</v>
       </c>
       <c r="W13" t="n">
-        <v>1784.112135439735</v>
+        <v>1784.112135439734</v>
       </c>
       <c r="X13" t="n">
         <v>1538.720380773147</v>
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1796.010816820323</v>
+        <v>1504.548673491549</v>
       </c>
       <c r="C14" t="n">
-        <v>1357.868344003746</v>
+        <v>1504.548673491549</v>
       </c>
       <c r="D14" t="n">
-        <v>921.9585591781904</v>
+        <v>1068.638888665993</v>
       </c>
       <c r="E14" t="n">
-        <v>488.1838143364855</v>
+        <v>634.8641438242885</v>
       </c>
       <c r="F14" t="n">
-        <v>60.31638474569325</v>
+        <v>634.8641438242885</v>
       </c>
       <c r="G14" t="n">
-        <v>60.31638474569325</v>
+        <v>234.5759915924559</v>
       </c>
       <c r="H14" t="n">
-        <v>60.31638474569325</v>
+        <v>60.31638474569324</v>
       </c>
       <c r="I14" t="n">
         <v>101.837454701092</v>
@@ -5281,22 +5281,22 @@
         <v>629.4005381353032</v>
       </c>
       <c r="K14" t="n">
-        <v>767.746895228108</v>
+        <v>1174.569314775534</v>
       </c>
       <c r="L14" t="n">
-        <v>939.3777846234505</v>
+        <v>1346.200204170876</v>
       </c>
       <c r="M14" t="n">
-        <v>1130.350218807757</v>
+        <v>1537.172638355183</v>
       </c>
       <c r="N14" t="n">
-        <v>1324.412786632698</v>
+        <v>1731.235206180124</v>
       </c>
       <c r="O14" t="n">
-        <v>1507.660566463248</v>
+        <v>1914.482986010674</v>
       </c>
       <c r="P14" t="n">
-        <v>2254.075827691202</v>
+        <v>2660.898247238628</v>
       </c>
       <c r="Q14" t="n">
         <v>2778.346437009021</v>
@@ -5308,22 +5308,22 @@
         <v>2957.454176982988</v>
       </c>
       <c r="T14" t="n">
-        <v>2742.244570312842</v>
+        <v>2957.454176982988</v>
       </c>
       <c r="U14" t="n">
-        <v>2483.111041961452</v>
+        <v>2698.320648631597</v>
       </c>
       <c r="V14" t="n">
-        <v>2200.866271409289</v>
+        <v>2335.703698565424</v>
       </c>
       <c r="W14" t="n">
-        <v>1796.010816820323</v>
+        <v>1930.848243976457</v>
       </c>
       <c r="X14" t="n">
-        <v>1796.010816820323</v>
+        <v>1930.848243976457</v>
       </c>
       <c r="Y14" t="n">
-        <v>1796.010816820323</v>
+        <v>1930.848243976457</v>
       </c>
     </row>
     <row r="15">
@@ -5348,37 +5348,37 @@
         <v>181.1092075111625</v>
       </c>
       <c r="G15" t="n">
-        <v>96.31784846322563</v>
+        <v>96.31784846322562</v>
       </c>
       <c r="H15" t="n">
-        <v>60.31638474569325</v>
+        <v>60.31638474569324</v>
       </c>
       <c r="I15" t="n">
-        <v>80.3516314345429</v>
+        <v>106.4153045950005</v>
       </c>
       <c r="J15" t="n">
-        <v>283.9383138409606</v>
+        <v>485.951877831851</v>
       </c>
       <c r="K15" t="n">
-        <v>377.9048969420277</v>
+        <v>579.9184609329182</v>
       </c>
       <c r="L15" t="n">
-        <v>504.2545641180151</v>
+        <v>706.2681281089056</v>
       </c>
       <c r="M15" t="n">
-        <v>651.6986661836003</v>
+        <v>853.7122301744907</v>
       </c>
       <c r="N15" t="n">
-        <v>803.0451748972429</v>
+        <v>1005.058738888133</v>
       </c>
       <c r="O15" t="n">
-        <v>941.4976624297303</v>
+        <v>1143.511226420621</v>
       </c>
       <c r="P15" t="n">
-        <v>1052.617989861467</v>
+        <v>1254.631553852358</v>
       </c>
       <c r="Q15" t="n">
-        <v>1667.637924625043</v>
+        <v>1550.465146530704</v>
       </c>
       <c r="R15" t="n">
         <v>1703.767727443815</v>
@@ -5415,49 +5415,49 @@
         <v>1119.482091368268</v>
       </c>
       <c r="C16" t="n">
-        <v>946.9203798514931</v>
+        <v>946.9203798514926</v>
       </c>
       <c r="D16" t="n">
-        <v>781.0423870530158</v>
+        <v>781.0423870530153</v>
       </c>
       <c r="E16" t="n">
-        <v>611.284383303753</v>
+        <v>611.2843833037525</v>
       </c>
       <c r="F16" t="n">
-        <v>434.5773292655092</v>
+        <v>434.5773292655088</v>
       </c>
       <c r="G16" t="n">
-        <v>269.4838181536717</v>
+        <v>269.4838181536712</v>
       </c>
       <c r="H16" t="n">
-        <v>134.0072170928047</v>
+        <v>134.0072170928041</v>
       </c>
       <c r="I16" t="n">
-        <v>60.31638474569325</v>
+        <v>60.31638474569324</v>
       </c>
       <c r="J16" t="n">
-        <v>94.80797090192894</v>
+        <v>181.3876560666188</v>
       </c>
       <c r="K16" t="n">
-        <v>426.2466969243558</v>
+        <v>512.8263820890456</v>
       </c>
       <c r="L16" t="n">
-        <v>916.9878118155107</v>
+        <v>1003.567496980201</v>
       </c>
       <c r="M16" t="n">
-        <v>1452.945694695533</v>
+        <v>1539.525379860223</v>
       </c>
       <c r="N16" t="n">
-        <v>1969.860132386791</v>
+        <v>2056.439817551482</v>
       </c>
       <c r="O16" t="n">
-        <v>2458.485943468963</v>
+        <v>2545.065628633654</v>
       </c>
       <c r="P16" t="n">
-        <v>2864.99708872162</v>
+        <v>2805.830697949447</v>
       </c>
       <c r="Q16" t="n">
-        <v>3014.874957973236</v>
+        <v>3014.874957973235</v>
       </c>
       <c r="R16" t="n">
         <v>3015.819237284662</v>
@@ -5466,7 +5466,7 @@
         <v>2865.252535165348</v>
       </c>
       <c r="T16" t="n">
-        <v>2621.49989797378</v>
+        <v>2621.499897973779</v>
       </c>
       <c r="U16" t="n">
         <v>2343.094047983012</v>
@@ -5475,7 +5475,7 @@
         <v>2056.138539853443</v>
       </c>
       <c r="W16" t="n">
-        <v>1784.112135439735</v>
+        <v>1784.112135439734</v>
       </c>
       <c r="X16" t="n">
         <v>1538.720380773147</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2191.821319275007</v>
+        <v>2196.298969052155</v>
       </c>
       <c r="C17" t="n">
-        <v>1753.67884645843</v>
+        <v>1758.156496235579</v>
       </c>
       <c r="D17" t="n">
-        <v>1317.769061632875</v>
+        <v>1322.246711410023</v>
       </c>
       <c r="E17" t="n">
-        <v>883.9943167911697</v>
+        <v>888.4719665683181</v>
       </c>
       <c r="F17" t="n">
-        <v>456.1268872003774</v>
+        <v>460.6045369775259</v>
       </c>
       <c r="G17" t="n">
-        <v>60.31638474569325</v>
+        <v>60.31638474569324</v>
       </c>
       <c r="H17" t="n">
-        <v>60.31638474569325</v>
+        <v>60.31638474569324</v>
       </c>
       <c r="I17" t="n">
         <v>101.837454701092</v>
       </c>
       <c r="J17" t="n">
-        <v>194.1458506823853</v>
+        <v>629.4005381353032</v>
       </c>
       <c r="K17" t="n">
-        <v>332.4922077751901</v>
+        <v>767.746895228108</v>
       </c>
       <c r="L17" t="n">
-        <v>504.1230971705325</v>
+        <v>939.3777846234505</v>
       </c>
       <c r="M17" t="n">
-        <v>695.0955313548388</v>
+        <v>1130.350218807757</v>
       </c>
       <c r="N17" t="n">
-        <v>889.1580991797803</v>
+        <v>1324.412786632698</v>
       </c>
       <c r="O17" t="n">
-        <v>1537.138264805137</v>
+        <v>1507.660566463248</v>
       </c>
       <c r="P17" t="n">
-        <v>2283.553526033091</v>
+        <v>2114.399461280034</v>
       </c>
       <c r="Q17" t="n">
-        <v>2947.500501762078</v>
+        <v>2778.346437009021</v>
       </c>
       <c r="R17" t="n">
         <v>3015.819237284662</v>
       </c>
       <c r="S17" t="n">
-        <v>3015.819237284662</v>
+        <v>2957.454176982988</v>
       </c>
       <c r="T17" t="n">
-        <v>3015.819237284662</v>
+        <v>2957.454176982988</v>
       </c>
       <c r="U17" t="n">
-        <v>3015.819237284662</v>
+        <v>2957.454176982988</v>
       </c>
       <c r="V17" t="n">
-        <v>3015.819237284662</v>
+        <v>2957.454176982988</v>
       </c>
       <c r="W17" t="n">
-        <v>2610.963782695696</v>
+        <v>2957.454176982988</v>
       </c>
       <c r="X17" t="n">
-        <v>2191.821319275007</v>
+        <v>2957.454176982988</v>
       </c>
       <c r="Y17" t="n">
-        <v>2191.821319275007</v>
+        <v>2622.598539537063</v>
       </c>
     </row>
     <row r="18">
@@ -5585,34 +5585,34 @@
         <v>181.1092075111625</v>
       </c>
       <c r="G18" t="n">
-        <v>96.31784846322563</v>
+        <v>96.31784846322562</v>
       </c>
       <c r="H18" t="n">
-        <v>60.31638474569325</v>
+        <v>60.31638474569324</v>
       </c>
       <c r="I18" t="n">
         <v>106.4153045950005</v>
       </c>
       <c r="J18" t="n">
-        <v>161.3935528656387</v>
+        <v>485.951877831851</v>
       </c>
       <c r="K18" t="n">
-        <v>255.3601359667059</v>
+        <v>579.9184609329182</v>
       </c>
       <c r="L18" t="n">
-        <v>381.7098031426933</v>
+        <v>706.2681281089056</v>
       </c>
       <c r="M18" t="n">
-        <v>529.1539052082784</v>
+        <v>853.7122301744907</v>
       </c>
       <c r="N18" t="n">
-        <v>680.500413921921</v>
+        <v>1005.058738888133</v>
       </c>
       <c r="O18" t="n">
-        <v>818.9529014544084</v>
+        <v>1143.511226420621</v>
       </c>
       <c r="P18" t="n">
-        <v>935.4452117671274</v>
+        <v>1254.631553852358</v>
       </c>
       <c r="Q18" t="n">
         <v>1550.465146530704</v>
@@ -5652,16 +5652,16 @@
         <v>1119.482091368267</v>
       </c>
       <c r="C19" t="n">
-        <v>946.9203798514924</v>
+        <v>946.9203798514923</v>
       </c>
       <c r="D19" t="n">
-        <v>781.0423870530151</v>
+        <v>781.0423870530149</v>
       </c>
       <c r="E19" t="n">
-        <v>611.2843833037524</v>
+        <v>611.2843833037518</v>
       </c>
       <c r="F19" t="n">
-        <v>434.5773292655086</v>
+        <v>434.5773292655081</v>
       </c>
       <c r="G19" t="n">
         <v>269.4838181536711</v>
@@ -5670,7 +5670,7 @@
         <v>134.0072170928041</v>
       </c>
       <c r="I19" t="n">
-        <v>60.31638474569325</v>
+        <v>60.31638474569324</v>
       </c>
       <c r="J19" t="n">
         <v>181.3876560666188</v>
@@ -5694,7 +5694,7 @@
         <v>2951.57677388631</v>
       </c>
       <c r="Q19" t="n">
-        <v>3014.874957973236</v>
+        <v>3014.874957973235</v>
       </c>
       <c r="R19" t="n">
         <v>3015.819237284662</v>
@@ -5703,16 +5703,16 @@
         <v>2865.252535165348</v>
       </c>
       <c r="T19" t="n">
-        <v>2621.49989797378</v>
+        <v>2621.499897973779</v>
       </c>
       <c r="U19" t="n">
-        <v>2343.094047983012</v>
+        <v>2343.094047983011</v>
       </c>
       <c r="V19" t="n">
-        <v>2056.138539853443</v>
+        <v>2056.138539853442</v>
       </c>
       <c r="W19" t="n">
-        <v>1784.112135439735</v>
+        <v>1784.112135439734</v>
       </c>
       <c r="X19" t="n">
         <v>1538.720380773146</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2056.811471476543</v>
+        <v>1796.010816820323</v>
       </c>
       <c r="C20" t="n">
-        <v>1618.668998659967</v>
+        <v>1357.868344003746</v>
       </c>
       <c r="D20" t="n">
-        <v>1182.759213834411</v>
+        <v>921.9585591781904</v>
       </c>
       <c r="E20" t="n">
-        <v>748.9844689927063</v>
+        <v>488.1838143364855</v>
       </c>
       <c r="F20" t="n">
-        <v>321.117039401914</v>
+        <v>60.31638474569324</v>
       </c>
       <c r="G20" t="n">
-        <v>321.117039401914</v>
+        <v>60.31638474569324</v>
       </c>
       <c r="H20" t="n">
         <v>60.31638474569324</v>
@@ -5752,25 +5752,25 @@
         <v>101.837454701092</v>
       </c>
       <c r="J20" t="n">
-        <v>629.4005381353032</v>
+        <v>194.1458506823853</v>
       </c>
       <c r="K20" t="n">
-        <v>767.746895228108</v>
+        <v>940.5611119103392</v>
       </c>
       <c r="L20" t="n">
-        <v>939.3777846234505</v>
+        <v>1112.192001305682</v>
       </c>
       <c r="M20" t="n">
-        <v>1130.350218807757</v>
+        <v>1303.164435489988</v>
       </c>
       <c r="N20" t="n">
-        <v>1324.412786632698</v>
+        <v>1497.22700331493</v>
       </c>
       <c r="O20" t="n">
-        <v>1958.001720781883</v>
+        <v>1914.482986010674</v>
       </c>
       <c r="P20" t="n">
-        <v>2114.399461280034</v>
+        <v>2660.898247238628</v>
       </c>
       <c r="Q20" t="n">
         <v>2778.346437009021</v>
@@ -5782,22 +5782,22 @@
         <v>2957.454176982988</v>
       </c>
       <c r="T20" t="n">
-        <v>2742.244570312842</v>
+        <v>2957.454176982988</v>
       </c>
       <c r="U20" t="n">
-        <v>2483.111041961451</v>
+        <v>2957.454176982988</v>
       </c>
       <c r="V20" t="n">
-        <v>2483.111041961451</v>
+        <v>2957.454176982988</v>
       </c>
       <c r="W20" t="n">
-        <v>2483.111041961451</v>
+        <v>2630.596511005577</v>
       </c>
       <c r="X20" t="n">
-        <v>2483.111041961451</v>
+        <v>2630.596511005577</v>
       </c>
       <c r="Y20" t="n">
-        <v>2483.111041961451</v>
+        <v>2222.310387305231</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>106.4153045950005</v>
       </c>
       <c r="J21" t="n">
-        <v>161.3935528656387</v>
+        <v>485.951877831851</v>
       </c>
       <c r="K21" t="n">
-        <v>255.3601359667059</v>
+        <v>579.9184609329182</v>
       </c>
       <c r="L21" t="n">
-        <v>381.7098031426933</v>
+        <v>706.2681281089056</v>
       </c>
       <c r="M21" t="n">
-        <v>529.1539052082784</v>
+        <v>853.7122301744907</v>
       </c>
       <c r="N21" t="n">
-        <v>1275.569166436232</v>
+        <v>1005.058738888133</v>
       </c>
       <c r="O21" t="n">
-        <v>1482.236601061806</v>
+        <v>1143.511226420621</v>
       </c>
       <c r="P21" t="n">
-        <v>1593.356928493543</v>
+        <v>1254.631553852358</v>
       </c>
       <c r="Q21" t="n">
-        <v>1667.637924625043</v>
+        <v>1550.465146530704</v>
       </c>
       <c r="R21" t="n">
         <v>1703.767727443815</v>
@@ -5889,46 +5889,46 @@
         <v>1119.482091368267</v>
       </c>
       <c r="C22" t="n">
-        <v>946.9203798514922</v>
+        <v>946.9203798514923</v>
       </c>
       <c r="D22" t="n">
         <v>781.0423870530149</v>
       </c>
       <c r="E22" t="n">
-        <v>611.2843833037521</v>
+        <v>611.2843833037523</v>
       </c>
       <c r="F22" t="n">
-        <v>434.5773292655083</v>
+        <v>434.5773292655086</v>
       </c>
       <c r="G22" t="n">
-        <v>269.4838181536708</v>
+        <v>269.4838181536711</v>
       </c>
       <c r="H22" t="n">
-        <v>134.0072170928038</v>
+        <v>134.0072170928041</v>
       </c>
       <c r="I22" t="n">
         <v>60.31638474569324</v>
       </c>
       <c r="J22" t="n">
-        <v>94.80797090192893</v>
+        <v>181.3876560666188</v>
       </c>
       <c r="K22" t="n">
-        <v>426.2466969243558</v>
+        <v>512.8263820890456</v>
       </c>
       <c r="L22" t="n">
-        <v>916.9878118155106</v>
+        <v>1003.567496980201</v>
       </c>
       <c r="M22" t="n">
-        <v>1452.945694695533</v>
+        <v>1539.525379860223</v>
       </c>
       <c r="N22" t="n">
-        <v>1969.860132386791</v>
+        <v>2056.439817551482</v>
       </c>
       <c r="O22" t="n">
-        <v>2458.485943468963</v>
+        <v>2545.065628633654</v>
       </c>
       <c r="P22" t="n">
-        <v>2864.99708872162</v>
+        <v>2951.57677388631</v>
       </c>
       <c r="Q22" t="n">
         <v>3014.874957973235</v>
@@ -5943,7 +5943,7 @@
         <v>2621.499897973779</v>
       </c>
       <c r="U22" t="n">
-        <v>2343.094047983011</v>
+        <v>2343.094047983012</v>
       </c>
       <c r="V22" t="n">
         <v>2056.138539853442</v>
@@ -5955,7 +5955,7 @@
         <v>1538.720380773146</v>
       </c>
       <c r="Y22" t="n">
-        <v>1311.300710087254</v>
+        <v>1311.300710087255</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2515.12899231856</v>
+        <v>2515.128992318561</v>
       </c>
       <c r="C23" t="n">
         <v>2076.986519501984</v>
       </c>
       <c r="D23" t="n">
-        <v>1641.076734676428</v>
+        <v>1641.076734676429</v>
       </c>
       <c r="E23" t="n">
-        <v>1207.301989834723</v>
+        <v>1207.301989834724</v>
       </c>
       <c r="F23" t="n">
-        <v>779.4345602439312</v>
+        <v>779.4345602439316</v>
       </c>
       <c r="G23" t="n">
         <v>379.1464080120986</v>
@@ -5989,28 +5989,28 @@
         <v>142.9018249534559</v>
       </c>
       <c r="J23" t="n">
-        <v>235.2102209347492</v>
+        <v>670.4649083876672</v>
       </c>
       <c r="K23" t="n">
-        <v>373.556578027554</v>
+        <v>1462.817020761234</v>
       </c>
       <c r="L23" t="n">
-        <v>545.1874674228965</v>
+        <v>1634.447910156576</v>
       </c>
       <c r="M23" t="n">
-        <v>1480.548919776519</v>
+        <v>1825.420344340883</v>
       </c>
       <c r="N23" t="n">
-        <v>2735.135762877475</v>
+        <v>2019.482912165824</v>
       </c>
       <c r="O23" t="n">
-        <v>3898.563209278332</v>
+        <v>3182.91035856668</v>
       </c>
       <c r="P23" t="n">
-        <v>4883.270824609879</v>
+        <v>4167.617973898227</v>
       </c>
       <c r="Q23" t="n">
-        <v>5000.719014380272</v>
+        <v>4831.564949627215</v>
       </c>
       <c r="R23" t="n">
         <v>5069.037749902855</v>
@@ -6034,7 +6034,7 @@
         <v>3349.714686503815</v>
       </c>
       <c r="Y23" t="n">
-        <v>2941.428562803468</v>
+        <v>2941.428562803469</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>101.3807549980571</v>
       </c>
       <c r="I24" t="n">
-        <v>147.4796748473643</v>
+        <v>121.4160016869068</v>
       </c>
       <c r="J24" t="n">
-        <v>202.4579231180025</v>
+        <v>500.9525749237573</v>
       </c>
       <c r="K24" t="n">
-        <v>296.4245062190697</v>
+        <v>594.9191580248244</v>
       </c>
       <c r="L24" t="n">
-        <v>422.7741733950571</v>
+        <v>721.2688252008118</v>
       </c>
       <c r="M24" t="n">
-        <v>570.2182754606422</v>
+        <v>868.7129272663969</v>
       </c>
       <c r="N24" t="n">
-        <v>721.5647841742849</v>
+        <v>1020.05943598004</v>
       </c>
       <c r="O24" t="n">
-        <v>860.0172717067722</v>
+        <v>1158.511923512527</v>
       </c>
       <c r="P24" t="n">
-        <v>976.5095820194913</v>
+        <v>1269.632250944264</v>
       </c>
       <c r="Q24" t="n">
-        <v>1591.529516783067</v>
+        <v>1708.702294877407</v>
       </c>
       <c r="R24" t="n">
         <v>1744.832097696179</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3172.700603986461</v>
+        <v>1160.546461620631</v>
       </c>
       <c r="C25" t="n">
-        <v>3000.138892469686</v>
+        <v>987.9847501038563</v>
       </c>
       <c r="D25" t="n">
-        <v>2834.260899671209</v>
+        <v>822.106757305379</v>
       </c>
       <c r="E25" t="n">
-        <v>2664.502895921946</v>
+        <v>652.3487535561162</v>
       </c>
       <c r="F25" t="n">
-        <v>2487.795841883702</v>
+        <v>475.6416995178724</v>
       </c>
       <c r="G25" t="n">
-        <v>2322.702330771865</v>
+        <v>310.5481884060349</v>
       </c>
       <c r="H25" t="n">
-        <v>2187.225729710998</v>
+        <v>175.071587345168</v>
       </c>
       <c r="I25" t="n">
-        <v>2113.534897363887</v>
+        <v>101.3807549980571</v>
       </c>
       <c r="J25" t="n">
-        <v>2148.026483520123</v>
+        <v>222.4520263189827</v>
       </c>
       <c r="K25" t="n">
-        <v>2420.298818770377</v>
+        <v>553.8907523414096</v>
       </c>
       <c r="L25" t="n">
-        <v>2911.039933661532</v>
+        <v>1044.631867232564</v>
       </c>
       <c r="M25" t="n">
-        <v>3446.997816541554</v>
+        <v>1580.589750112587</v>
       </c>
       <c r="N25" t="n">
-        <v>3963.912254232813</v>
+        <v>2097.504187803845</v>
       </c>
       <c r="O25" t="n">
-        <v>4452.538065314985</v>
+        <v>2586.129998886017</v>
       </c>
       <c r="P25" t="n">
-        <v>4859.049210567641</v>
+        <v>2992.641144138674</v>
       </c>
       <c r="Q25" t="n">
-        <v>5068.093470591429</v>
+        <v>3055.939328225599</v>
       </c>
       <c r="R25" t="n">
-        <v>5069.037749902855</v>
+        <v>3056.883607537026</v>
       </c>
       <c r="S25" t="n">
-        <v>4918.471047783542</v>
+        <v>2906.316905417712</v>
       </c>
       <c r="T25" t="n">
-        <v>4674.718410591972</v>
+        <v>2662.564268226143</v>
       </c>
       <c r="U25" t="n">
-        <v>4396.312560601205</v>
+        <v>2384.158418235376</v>
       </c>
       <c r="V25" t="n">
-        <v>4109.357052471636</v>
+        <v>2097.202910105806</v>
       </c>
       <c r="W25" t="n">
-        <v>3837.330648057928</v>
+        <v>1825.176505692098</v>
       </c>
       <c r="X25" t="n">
-        <v>3591.93889339134</v>
+        <v>1579.78475102551</v>
       </c>
       <c r="Y25" t="n">
-        <v>3364.519222705449</v>
+        <v>1352.365080339619</v>
       </c>
     </row>
     <row r="26">
@@ -6220,7 +6220,7 @@
         <v>364.4547539038186</v>
       </c>
       <c r="H26" t="n">
-        <v>86.68910088977816</v>
+        <v>86.68910088977815</v>
       </c>
       <c r="I26" t="n">
         <v>128.2101708451769</v>
@@ -6232,34 +6232,34 @@
         <v>1628.469903330371</v>
       </c>
       <c r="L26" t="n">
-        <v>1800.100792725713</v>
+        <v>1880.044871312934</v>
       </c>
       <c r="M26" t="n">
-        <v>1991.07322691002</v>
+        <v>2071.017305497241</v>
       </c>
       <c r="N26" t="n">
-        <v>2185.135794734961</v>
+        <v>2265.079873322182</v>
       </c>
       <c r="O26" t="n">
-        <v>2448.327653152733</v>
+        <v>2448.327653152732</v>
       </c>
       <c r="P26" t="n">
-        <v>3433.035268484281</v>
+        <v>3433.03526848428</v>
       </c>
       <c r="Q26" t="n">
-        <v>4096.982244213268</v>
+        <v>4096.982244213267</v>
       </c>
       <c r="R26" t="n">
-        <v>4334.455044488908</v>
+        <v>4334.455044488907</v>
       </c>
       <c r="S26" t="n">
-        <v>4276.089984187234</v>
+        <v>4334.455044488907</v>
       </c>
       <c r="T26" t="n">
-        <v>4276.089984187234</v>
+        <v>4334.455044488907</v>
       </c>
       <c r="U26" t="n">
-        <v>4276.089984187234</v>
+        <v>4334.455044488907</v>
       </c>
       <c r="V26" t="n">
         <v>4159.020950405191</v>
@@ -6299,34 +6299,34 @@
         <v>122.6905646073105</v>
       </c>
       <c r="H27" t="n">
-        <v>86.68910088977816</v>
+        <v>86.68910088977815</v>
       </c>
       <c r="I27" t="n">
-        <v>132.7880207390854</v>
+        <v>106.7243475786278</v>
       </c>
       <c r="J27" t="n">
-        <v>512.324593975936</v>
+        <v>310.3110299850455</v>
       </c>
       <c r="K27" t="n">
-        <v>827.8437736238485</v>
+        <v>404.2776130861126</v>
       </c>
       <c r="L27" t="n">
-        <v>954.193440799836</v>
+        <v>530.6272802621</v>
       </c>
       <c r="M27" t="n">
-        <v>1101.637542865421</v>
+        <v>678.0713823276851</v>
       </c>
       <c r="N27" t="n">
-        <v>1252.984051579064</v>
+        <v>829.4178910413277</v>
       </c>
       <c r="O27" t="n">
-        <v>1391.436539111551</v>
+        <v>967.8703785738152</v>
       </c>
       <c r="P27" t="n">
-        <v>1502.556866543288</v>
+        <v>1078.990706005552</v>
       </c>
       <c r="Q27" t="n">
-        <v>1576.837862674789</v>
+        <v>1694.010640769128</v>
       </c>
       <c r="R27" t="n">
         <v>1730.1404435879</v>
@@ -6381,28 +6381,28 @@
         <v>160.379933236889</v>
       </c>
       <c r="I28" t="n">
-        <v>86.68910088977816</v>
+        <v>86.68910088977815</v>
       </c>
       <c r="J28" t="n">
-        <v>121.1806870460138</v>
+        <v>207.7603722107037</v>
       </c>
       <c r="K28" t="n">
-        <v>452.6194130684407</v>
+        <v>539.1990982331305</v>
       </c>
       <c r="L28" t="n">
-        <v>943.3605279595956</v>
+        <v>1029.940213124285</v>
       </c>
       <c r="M28" t="n">
-        <v>1479.318410839618</v>
+        <v>1565.898096004307</v>
       </c>
       <c r="N28" t="n">
-        <v>1996.232848530876</v>
+        <v>2082.812533695566</v>
       </c>
       <c r="O28" t="n">
-        <v>2484.858659613049</v>
+        <v>2571.438344777739</v>
       </c>
       <c r="P28" t="n">
-        <v>2891.369804865705</v>
+        <v>2977.949490030394</v>
       </c>
       <c r="Q28" t="n">
         <v>3041.24767411732</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2254.889421926151</v>
+        <v>2222.67168519624</v>
       </c>
       <c r="C29" t="n">
-        <v>1816.746949109574</v>
+        <v>1784.529212379663</v>
       </c>
       <c r="D29" t="n">
-        <v>1380.837164284018</v>
+        <v>1348.619427554108</v>
       </c>
       <c r="E29" t="n">
-        <v>947.0624194423135</v>
+        <v>914.844682712403</v>
       </c>
       <c r="F29" t="n">
-        <v>519.1949898515213</v>
+        <v>486.9772531216108</v>
       </c>
       <c r="G29" t="n">
-        <v>118.9068376196887</v>
+        <v>86.68910088977815</v>
       </c>
       <c r="H29" t="n">
-        <v>86.68910088977816</v>
+        <v>86.68910088977815</v>
       </c>
       <c r="I29" t="n">
         <v>128.2101708451769</v>
@@ -6472,43 +6472,43 @@
         <v>965.7505007675354</v>
       </c>
       <c r="M29" t="n">
-        <v>2038.52812427854</v>
+        <v>2020.612124644574</v>
       </c>
       <c r="N29" t="n">
-        <v>2232.590692103482</v>
+        <v>3093.389748155579</v>
       </c>
       <c r="O29" t="n">
-        <v>3305.368315614486</v>
+        <v>3276.637527986129</v>
       </c>
       <c r="P29" t="n">
-        <v>3461.766056112637</v>
+        <v>3433.03526848428</v>
       </c>
       <c r="Q29" t="n">
-        <v>4125.713031841625</v>
+        <v>4096.982244213267</v>
       </c>
       <c r="R29" t="n">
-        <v>4334.455044488908</v>
+        <v>4334.455044488907</v>
       </c>
       <c r="S29" t="n">
-        <v>4276.089984187234</v>
+        <v>4276.089984187233</v>
       </c>
       <c r="T29" t="n">
-        <v>4276.089984187234</v>
+        <v>4276.089984187233</v>
       </c>
       <c r="U29" t="n">
-        <v>4276.089984187234</v>
+        <v>4016.956455835842</v>
       </c>
       <c r="V29" t="n">
-        <v>3913.473034121061</v>
+        <v>3881.255297391151</v>
       </c>
       <c r="W29" t="n">
-        <v>3508.617579532094</v>
+        <v>3476.399842802184</v>
       </c>
       <c r="X29" t="n">
-        <v>3089.475116111405</v>
+        <v>3057.257379381495</v>
       </c>
       <c r="Y29" t="n">
-        <v>2681.188992411058</v>
+        <v>2648.971255681148</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>122.6905646073105</v>
       </c>
       <c r="H30" t="n">
-        <v>86.68910088977816</v>
+        <v>86.68910088977815</v>
       </c>
       <c r="I30" t="n">
-        <v>106.7243475786278</v>
+        <v>132.7880207390854</v>
       </c>
       <c r="J30" t="n">
-        <v>161.702595849266</v>
+        <v>512.324593975936</v>
       </c>
       <c r="K30" t="n">
-        <v>255.6691789503332</v>
+        <v>827.8437736238485</v>
       </c>
       <c r="L30" t="n">
-        <v>382.0188461263206</v>
+        <v>954.193440799836</v>
       </c>
       <c r="M30" t="n">
-        <v>529.4629481919058</v>
+        <v>1101.637542865421</v>
       </c>
       <c r="N30" t="n">
-        <v>1370.156829673404</v>
+        <v>1252.984051579064</v>
       </c>
       <c r="O30" t="n">
-        <v>1508.609317205891</v>
+        <v>1391.436539111551</v>
       </c>
       <c r="P30" t="n">
-        <v>1619.729644637628</v>
+        <v>1502.556866543288</v>
       </c>
       <c r="Q30" t="n">
-        <v>1694.010640769128</v>
+        <v>1576.837862674789</v>
       </c>
       <c r="R30" t="n">
         <v>1730.1404435879</v>
@@ -6618,7 +6618,7 @@
         <v>160.379933236889</v>
       </c>
       <c r="I31" t="n">
-        <v>86.68910088977816</v>
+        <v>86.68910088977815</v>
       </c>
       <c r="J31" t="n">
         <v>207.7603722107037</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2500.43733821028</v>
+        <v>2222.67168519624</v>
       </c>
       <c r="C32" t="n">
-        <v>2062.294865393704</v>
+        <v>1784.529212379663</v>
       </c>
       <c r="D32" t="n">
-        <v>1626.385080568148</v>
+        <v>1348.619427554108</v>
       </c>
       <c r="E32" t="n">
-        <v>1192.610335726444</v>
+        <v>914.844682712403</v>
       </c>
       <c r="F32" t="n">
-        <v>764.7429061356513</v>
+        <v>486.9772531216108</v>
       </c>
       <c r="G32" t="n">
-        <v>364.4547539038186</v>
+        <v>86.68910088977815</v>
       </c>
       <c r="H32" t="n">
-        <v>86.68910088977816</v>
+        <v>86.68910088977815</v>
       </c>
       <c r="I32" t="n">
         <v>128.2101708451769</v>
       </c>
       <c r="J32" t="n">
-        <v>220.5185668264703</v>
+        <v>655.7732542793882</v>
       </c>
       <c r="K32" t="n">
-        <v>1193.215215877453</v>
+        <v>1628.469903330371</v>
       </c>
       <c r="L32" t="n">
-        <v>1364.846105272796</v>
+        <v>1880.044871312934</v>
       </c>
       <c r="M32" t="n">
-        <v>1555.818539457102</v>
+        <v>2071.017305497241</v>
       </c>
       <c r="N32" t="n">
-        <v>1749.881107282043</v>
+        <v>2265.079873322182</v>
       </c>
       <c r="O32" t="n">
-        <v>2822.658730793048</v>
+        <v>2448.327653152732</v>
       </c>
       <c r="P32" t="n">
-        <v>3807.366346124596</v>
+        <v>3433.03526848428</v>
       </c>
       <c r="Q32" t="n">
-        <v>4096.982244213268</v>
+        <v>4096.982244213267</v>
       </c>
       <c r="R32" t="n">
-        <v>4334.455044488908</v>
+        <v>4334.455044488907</v>
       </c>
       <c r="S32" t="n">
-        <v>4276.089984187234</v>
+        <v>4276.089984187233</v>
       </c>
       <c r="T32" t="n">
-        <v>4276.089984187234</v>
+        <v>4276.089984187233</v>
       </c>
       <c r="U32" t="n">
-        <v>4276.089984187234</v>
+        <v>4016.956455835842</v>
       </c>
       <c r="V32" t="n">
-        <v>4159.020950405191</v>
+        <v>3654.339505769669</v>
       </c>
       <c r="W32" t="n">
-        <v>3754.165495816224</v>
+        <v>3249.484051180702</v>
       </c>
       <c r="X32" t="n">
-        <v>3335.023032395535</v>
+        <v>3057.257379381495</v>
       </c>
       <c r="Y32" t="n">
-        <v>2926.736908695188</v>
+        <v>2648.971255681148</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>122.6905646073105</v>
       </c>
       <c r="H33" t="n">
-        <v>86.68910088977816</v>
+        <v>86.68910088977815</v>
       </c>
       <c r="I33" t="n">
-        <v>106.7243475786278</v>
+        <v>132.7880207390854</v>
       </c>
       <c r="J33" t="n">
-        <v>161.702595849266</v>
+        <v>512.324593975936</v>
       </c>
       <c r="K33" t="n">
-        <v>255.6691789503332</v>
+        <v>606.291177077003</v>
       </c>
       <c r="L33" t="n">
-        <v>382.0188461263206</v>
+        <v>732.6408442529904</v>
       </c>
       <c r="M33" t="n">
-        <v>529.4629481919058</v>
+        <v>880.0849463185756</v>
       </c>
       <c r="N33" t="n">
-        <v>1370.156829673404</v>
+        <v>1031.431455032218</v>
       </c>
       <c r="O33" t="n">
-        <v>1508.609317205891</v>
+        <v>1169.883942564706</v>
       </c>
       <c r="P33" t="n">
-        <v>1619.729644637628</v>
+        <v>1281.004269996443</v>
       </c>
       <c r="Q33" t="n">
-        <v>1694.010640769128</v>
+        <v>1576.837862674789</v>
       </c>
       <c r="R33" t="n">
         <v>1730.1404435879</v>
@@ -6855,28 +6855,28 @@
         <v>160.379933236889</v>
       </c>
       <c r="I34" t="n">
-        <v>86.68910088977816</v>
+        <v>86.68910088977815</v>
       </c>
       <c r="J34" t="n">
-        <v>121.1806870460138</v>
+        <v>207.7603722107037</v>
       </c>
       <c r="K34" t="n">
-        <v>452.6194130684406</v>
+        <v>539.1990982331305</v>
       </c>
       <c r="L34" t="n">
-        <v>943.3605279595954</v>
+        <v>1029.940213124285</v>
       </c>
       <c r="M34" t="n">
-        <v>1479.318410839618</v>
+        <v>1565.898096004307</v>
       </c>
       <c r="N34" t="n">
-        <v>1996.232848530876</v>
+        <v>2082.812533695566</v>
       </c>
       <c r="O34" t="n">
-        <v>2484.858659613048</v>
+        <v>2571.438344777739</v>
       </c>
       <c r="P34" t="n">
-        <v>2891.369804865705</v>
+        <v>2977.949490030394</v>
       </c>
       <c r="Q34" t="n">
         <v>3041.24767411732</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1796.010816820323</v>
+        <v>1765.521748790099</v>
       </c>
       <c r="C35" t="n">
-        <v>1357.868344003746</v>
+        <v>1327.379275973522</v>
       </c>
       <c r="D35" t="n">
-        <v>921.9585591781904</v>
+        <v>891.4694911479669</v>
       </c>
       <c r="E35" t="n">
-        <v>488.1838143364855</v>
+        <v>457.6947463062621</v>
       </c>
       <c r="F35" t="n">
-        <v>60.31638474569324</v>
+        <v>457.6947463062621</v>
       </c>
       <c r="G35" t="n">
-        <v>60.31638474569324</v>
+        <v>60.31638474569325</v>
       </c>
       <c r="H35" t="n">
-        <v>60.31638474569324</v>
+        <v>60.31638474569325</v>
       </c>
       <c r="I35" t="n">
         <v>101.837454701092</v>
@@ -6943,19 +6943,19 @@
         <v>332.4922077751901</v>
       </c>
       <c r="L35" t="n">
-        <v>1078.907469003144</v>
+        <v>504.1230971705325</v>
       </c>
       <c r="M35" t="n">
-        <v>1825.322730231098</v>
+        <v>695.0955313548388</v>
       </c>
       <c r="N35" t="n">
-        <v>2490.406791662984</v>
+        <v>889.1580991797803</v>
       </c>
       <c r="O35" t="n">
-        <v>2673.654571493534</v>
+        <v>1635.573360407734</v>
       </c>
       <c r="P35" t="n">
-        <v>2830.052311991685</v>
+        <v>2381.988621635688</v>
       </c>
       <c r="Q35" t="n">
         <v>2947.500501762078</v>
@@ -6967,22 +6967,22 @@
         <v>3015.819237284662</v>
       </c>
       <c r="T35" t="n">
-        <v>2879.142263181369</v>
+        <v>3015.819237284662</v>
       </c>
       <c r="U35" t="n">
-        <v>2620.008734829978</v>
+        <v>3015.819237284662</v>
       </c>
       <c r="V35" t="n">
-        <v>2620.008734829978</v>
+        <v>3015.819237284662</v>
       </c>
       <c r="W35" t="n">
-        <v>2215.153280241012</v>
+        <v>2610.963782695696</v>
       </c>
       <c r="X35" t="n">
-        <v>1796.010816820323</v>
+        <v>2191.821319275007</v>
       </c>
       <c r="Y35" t="n">
-        <v>1796.010816820323</v>
+        <v>2191.821319275007</v>
       </c>
     </row>
     <row r="36">
@@ -7007,37 +7007,37 @@
         <v>181.1092075111625</v>
       </c>
       <c r="G36" t="n">
-        <v>96.31784846322562</v>
+        <v>96.31784846322563</v>
       </c>
       <c r="H36" t="n">
-        <v>60.31638474569324</v>
+        <v>60.31638474569325</v>
       </c>
       <c r="I36" t="n">
-        <v>106.4153045950005</v>
+        <v>80.3516314345429</v>
       </c>
       <c r="J36" t="n">
-        <v>485.951877831851</v>
+        <v>283.9383138409606</v>
       </c>
       <c r="K36" t="n">
-        <v>801.4710574797637</v>
+        <v>377.9048969420277</v>
       </c>
       <c r="L36" t="n">
-        <v>927.8207246557511</v>
+        <v>504.2545641180151</v>
       </c>
       <c r="M36" t="n">
-        <v>1075.264826721336</v>
+        <v>651.6986661836003</v>
       </c>
       <c r="N36" t="n">
-        <v>1226.611335434979</v>
+        <v>803.0451748972429</v>
       </c>
       <c r="O36" t="n">
-        <v>1365.063822967466</v>
+        <v>941.4976624297303</v>
       </c>
       <c r="P36" t="n">
-        <v>1476.184150399203</v>
+        <v>1052.617989861467</v>
       </c>
       <c r="Q36" t="n">
-        <v>1550.465146530704</v>
+        <v>1667.637924625043</v>
       </c>
       <c r="R36" t="n">
         <v>1703.767727443815</v>
@@ -7080,19 +7080,19 @@
         <v>781.0423870530151</v>
       </c>
       <c r="E37" t="n">
-        <v>611.2843833037523</v>
+        <v>611.2843833037524</v>
       </c>
       <c r="F37" t="n">
-        <v>434.5773292655085</v>
+        <v>434.5773292655086</v>
       </c>
       <c r="G37" t="n">
-        <v>269.483818153671</v>
+        <v>269.4838181536711</v>
       </c>
       <c r="H37" t="n">
-        <v>134.007217092804</v>
+        <v>134.0072170928041</v>
       </c>
       <c r="I37" t="n">
-        <v>60.31638474569324</v>
+        <v>60.31638474569325</v>
       </c>
       <c r="J37" t="n">
         <v>181.3876560666188</v>
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1796.010816820323</v>
+        <v>1360.101031994767</v>
       </c>
       <c r="C38" t="n">
-        <v>1357.868344003746</v>
+        <v>921.9585591781904</v>
       </c>
       <c r="D38" t="n">
         <v>921.9585591781904</v>
@@ -7162,34 +7162,34 @@
         <v>488.1838143364855</v>
       </c>
       <c r="F38" t="n">
-        <v>60.31638474569324</v>
+        <v>60.31638474569325</v>
       </c>
       <c r="G38" t="n">
-        <v>60.31638474569324</v>
+        <v>60.31638474569325</v>
       </c>
       <c r="H38" t="n">
-        <v>60.31638474569324</v>
+        <v>60.31638474569325</v>
       </c>
       <c r="I38" t="n">
         <v>101.837454701092</v>
       </c>
       <c r="J38" t="n">
-        <v>629.4005381353032</v>
+        <v>194.1458506823853</v>
       </c>
       <c r="K38" t="n">
-        <v>1174.569314775534</v>
+        <v>332.4922077751901</v>
       </c>
       <c r="L38" t="n">
-        <v>1346.200204170876</v>
+        <v>1078.907469003144</v>
       </c>
       <c r="M38" t="n">
-        <v>1537.172638355183</v>
+        <v>1269.87990318745</v>
       </c>
       <c r="N38" t="n">
-        <v>1731.235206180124</v>
+        <v>2016.295164415404</v>
       </c>
       <c r="O38" t="n">
-        <v>1914.482986010674</v>
+        <v>2504.500506740477</v>
       </c>
       <c r="P38" t="n">
         <v>2660.898247238628</v>
@@ -7201,25 +7201,25 @@
         <v>3015.819237284662</v>
       </c>
       <c r="S38" t="n">
-        <v>2957.454176982988</v>
+        <v>3015.819237284662</v>
       </c>
       <c r="T38" t="n">
-        <v>2742.244570312842</v>
+        <v>3015.819237284662</v>
       </c>
       <c r="U38" t="n">
-        <v>2742.244570312842</v>
+        <v>3015.819237284662</v>
       </c>
       <c r="V38" t="n">
-        <v>2641.45285072592</v>
+        <v>3015.819237284662</v>
       </c>
       <c r="W38" t="n">
-        <v>2641.45285072592</v>
+        <v>2613.829189600711</v>
       </c>
       <c r="X38" t="n">
-        <v>2222.310387305231</v>
+        <v>2194.686726180022</v>
       </c>
       <c r="Y38" t="n">
-        <v>2222.310387305231</v>
+        <v>1786.400602479675</v>
       </c>
     </row>
     <row r="39">
@@ -7244,37 +7244,37 @@
         <v>181.1092075111625</v>
       </c>
       <c r="G39" t="n">
-        <v>96.31784846322562</v>
+        <v>96.31784846322563</v>
       </c>
       <c r="H39" t="n">
-        <v>60.31638474569324</v>
+        <v>60.31638474569325</v>
       </c>
       <c r="I39" t="n">
-        <v>106.4153045950005</v>
+        <v>80.3516314345429</v>
       </c>
       <c r="J39" t="n">
-        <v>161.3935528656387</v>
+        <v>283.9383138409606</v>
       </c>
       <c r="K39" t="n">
-        <v>255.3601359667059</v>
+        <v>377.9048969420277</v>
       </c>
       <c r="L39" t="n">
-        <v>381.7098031426933</v>
+        <v>504.2545641180151</v>
       </c>
       <c r="M39" t="n">
-        <v>529.1539052082784</v>
+        <v>651.6986661836003</v>
       </c>
       <c r="N39" t="n">
-        <v>680.500413921921</v>
+        <v>803.0451748972429</v>
       </c>
       <c r="O39" t="n">
-        <v>818.9529014544084</v>
+        <v>941.4976624297303</v>
       </c>
       <c r="P39" t="n">
-        <v>935.4452117671274</v>
+        <v>1052.617989861467</v>
       </c>
       <c r="Q39" t="n">
-        <v>1550.465146530704</v>
+        <v>1667.637924625043</v>
       </c>
       <c r="R39" t="n">
         <v>1703.767727443815</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1119.482091368268</v>
+        <v>1119.482091368267</v>
       </c>
       <c r="C40" t="n">
-        <v>946.9203798514926</v>
+        <v>946.9203798514924</v>
       </c>
       <c r="D40" t="n">
-        <v>781.0423870530153</v>
+        <v>781.0423870530151</v>
       </c>
       <c r="E40" t="n">
-        <v>611.2843833037525</v>
+        <v>611.2843833037524</v>
       </c>
       <c r="F40" t="n">
         <v>434.5773292655086</v>
@@ -7329,7 +7329,7 @@
         <v>134.0072170928041</v>
       </c>
       <c r="I40" t="n">
-        <v>60.31638474569324</v>
+        <v>60.31638474569325</v>
       </c>
       <c r="J40" t="n">
         <v>181.3876560666188</v>
@@ -7353,7 +7353,7 @@
         <v>2951.57677388631</v>
       </c>
       <c r="Q40" t="n">
-        <v>3014.874957973235</v>
+        <v>3014.874957973236</v>
       </c>
       <c r="R40" t="n">
         <v>3015.819237284662</v>
@@ -7374,7 +7374,7 @@
         <v>1784.112135439734</v>
       </c>
       <c r="X40" t="n">
-        <v>1538.720380773147</v>
+        <v>1538.720380773146</v>
       </c>
       <c r="Y40" t="n">
         <v>1311.300710087255</v>
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1341.109069310871</v>
+        <v>1767.408639795779</v>
       </c>
       <c r="C41" t="n">
-        <v>1341.109069310871</v>
+        <v>1329.266166979202</v>
       </c>
       <c r="D41" t="n">
         <v>1322.246711410023</v>
@@ -7402,31 +7402,31 @@
         <v>460.6045369775259</v>
       </c>
       <c r="G41" t="n">
-        <v>60.31638474569324</v>
+        <v>60.31638474569325</v>
       </c>
       <c r="H41" t="n">
-        <v>60.31638474569324</v>
+        <v>60.31638474569325</v>
       </c>
       <c r="I41" t="n">
         <v>101.837454701092</v>
       </c>
       <c r="J41" t="n">
-        <v>194.1458506823853</v>
+        <v>629.4005381353032</v>
       </c>
       <c r="K41" t="n">
-        <v>332.4922077751901</v>
+        <v>1209.14400846169</v>
       </c>
       <c r="L41" t="n">
-        <v>504.1230971705325</v>
+        <v>1380.774897857032</v>
       </c>
       <c r="M41" t="n">
-        <v>695.0955313548388</v>
+        <v>2127.190159084986</v>
       </c>
       <c r="N41" t="n">
-        <v>1441.510792582793</v>
+        <v>2321.252726909928</v>
       </c>
       <c r="O41" t="n">
-        <v>2187.926053810746</v>
+        <v>2504.500506740477</v>
       </c>
       <c r="P41" t="n">
         <v>2660.898247238628</v>
@@ -7447,13 +7447,13 @@
         <v>2957.454176982988</v>
       </c>
       <c r="V41" t="n">
-        <v>2594.837226916814</v>
+        <v>2594.837226916815</v>
       </c>
       <c r="W41" t="n">
-        <v>2594.837226916814</v>
+        <v>2594.837226916815</v>
       </c>
       <c r="X41" t="n">
-        <v>2175.694763496125</v>
+        <v>2175.694763496126</v>
       </c>
       <c r="Y41" t="n">
         <v>1767.408639795779</v>
@@ -7481,13 +7481,13 @@
         <v>181.1092075111625</v>
       </c>
       <c r="G42" t="n">
-        <v>96.31784846322562</v>
+        <v>96.31784846322563</v>
       </c>
       <c r="H42" t="n">
-        <v>60.31638474569324</v>
+        <v>60.31638474569325</v>
       </c>
       <c r="I42" t="n">
-        <v>80.35163143454288</v>
+        <v>80.3516314345429</v>
       </c>
       <c r="J42" t="n">
         <v>283.9383138409606</v>
@@ -7548,13 +7548,13 @@
         <v>1119.482091368268</v>
       </c>
       <c r="C43" t="n">
-        <v>946.9203798514926</v>
+        <v>946.9203798514931</v>
       </c>
       <c r="D43" t="n">
-        <v>781.0423870530153</v>
+        <v>781.0423870530151</v>
       </c>
       <c r="E43" t="n">
-        <v>611.2843833037525</v>
+        <v>611.2843833037524</v>
       </c>
       <c r="F43" t="n">
         <v>434.5773292655086</v>
@@ -7566,7 +7566,7 @@
         <v>134.0072170928041</v>
       </c>
       <c r="I43" t="n">
-        <v>60.31638474569324</v>
+        <v>60.31638474569325</v>
       </c>
       <c r="J43" t="n">
         <v>181.3876560666188</v>
@@ -7587,10 +7587,10 @@
         <v>2545.065628633654</v>
       </c>
       <c r="P43" t="n">
-        <v>2805.830697949447</v>
+        <v>2951.57677388631</v>
       </c>
       <c r="Q43" t="n">
-        <v>3014.874957973235</v>
+        <v>3014.874957973236</v>
       </c>
       <c r="R43" t="n">
         <v>3015.819237284662</v>
@@ -7599,7 +7599,7 @@
         <v>2865.252535165348</v>
       </c>
       <c r="T43" t="n">
-        <v>2621.499897973779</v>
+        <v>2621.49989797378</v>
       </c>
       <c r="U43" t="n">
         <v>2343.094047983012</v>
@@ -7608,7 +7608,7 @@
         <v>2056.138539853443</v>
       </c>
       <c r="W43" t="n">
-        <v>1784.112135439734</v>
+        <v>1784.112135439735</v>
       </c>
       <c r="X43" t="n">
         <v>1538.720380773147</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1774.003697607985</v>
+        <v>1852.878614726</v>
       </c>
       <c r="C44" t="n">
-        <v>1774.003697607985</v>
+        <v>1414.736141909424</v>
       </c>
       <c r="D44" t="n">
-        <v>1600.012364424063</v>
+        <v>978.8263570838681</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.237619582359</v>
+        <v>545.0516122421632</v>
       </c>
       <c r="F44" t="n">
-        <v>738.3701899915663</v>
+        <v>117.1841826513709</v>
       </c>
       <c r="G44" t="n">
-        <v>338.0820377597337</v>
+        <v>60.31638474569324</v>
       </c>
       <c r="H44" t="n">
         <v>60.31638474569324</v>
@@ -7651,49 +7651,49 @@
         <v>629.4005381353032</v>
       </c>
       <c r="K44" t="n">
-        <v>1375.815799363257</v>
+        <v>767.746895228108</v>
       </c>
       <c r="L44" t="n">
-        <v>1547.4466887586</v>
+        <v>939.3777846234505</v>
       </c>
       <c r="M44" t="n">
-        <v>1738.419122942906</v>
+        <v>1130.350218807757</v>
       </c>
       <c r="N44" t="n">
-        <v>1932.481690767847</v>
+        <v>1324.412786632698</v>
       </c>
       <c r="O44" t="n">
-        <v>2115.729470598397</v>
+        <v>1507.660566463248</v>
       </c>
       <c r="P44" t="n">
-        <v>2283.55352603309</v>
+        <v>2114.399461280034</v>
       </c>
       <c r="Q44" t="n">
-        <v>2947.500501762078</v>
+        <v>2778.346437009021</v>
       </c>
       <c r="R44" t="n">
         <v>3015.819237284662</v>
       </c>
       <c r="S44" t="n">
-        <v>3015.819237284662</v>
+        <v>2957.454176982988</v>
       </c>
       <c r="T44" t="n">
-        <v>2800.609630614516</v>
+        <v>2957.454176982988</v>
       </c>
       <c r="U44" t="n">
-        <v>2541.476102263125</v>
+        <v>2698.320648631597</v>
       </c>
       <c r="V44" t="n">
-        <v>2178.859152196952</v>
+        <v>2698.320648631597</v>
       </c>
       <c r="W44" t="n">
-        <v>1774.003697607985</v>
+        <v>2698.320648631597</v>
       </c>
       <c r="X44" t="n">
-        <v>1774.003697607985</v>
+        <v>2279.178185210908</v>
       </c>
       <c r="Y44" t="n">
-        <v>1774.003697607985</v>
+        <v>2279.178185210908</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>60.31638474569324</v>
       </c>
       <c r="I45" t="n">
-        <v>106.4153045950005</v>
+        <v>80.35163143454288</v>
       </c>
       <c r="J45" t="n">
-        <v>485.951877831851</v>
+        <v>283.9383138409606</v>
       </c>
       <c r="K45" t="n">
-        <v>801.4710574797637</v>
+        <v>377.9048969420277</v>
       </c>
       <c r="L45" t="n">
-        <v>927.8207246557511</v>
+        <v>504.2545641180151</v>
       </c>
       <c r="M45" t="n">
-        <v>1075.264826721336</v>
+        <v>651.6986661836003</v>
       </c>
       <c r="N45" t="n">
-        <v>1226.611335434979</v>
+        <v>803.0451748972429</v>
       </c>
       <c r="O45" t="n">
-        <v>1365.063822967466</v>
+        <v>941.4976624297303</v>
       </c>
       <c r="P45" t="n">
-        <v>1476.184150399203</v>
+        <v>1052.617989861467</v>
       </c>
       <c r="Q45" t="n">
-        <v>1550.465146530704</v>
+        <v>1667.637924625043</v>
       </c>
       <c r="R45" t="n">
         <v>1703.767727443815</v>
@@ -7785,22 +7785,22 @@
         <v>1119.482091368267</v>
       </c>
       <c r="C46" t="n">
-        <v>946.9203798514924</v>
+        <v>946.9203798514923</v>
       </c>
       <c r="D46" t="n">
-        <v>781.0423870530151</v>
+        <v>781.0423870530149</v>
       </c>
       <c r="E46" t="n">
-        <v>611.2843833037523</v>
+        <v>611.2843833037518</v>
       </c>
       <c r="F46" t="n">
-        <v>434.5773292655085</v>
+        <v>434.5773292655081</v>
       </c>
       <c r="G46" t="n">
-        <v>269.4838181536707</v>
+        <v>269.4838181536702</v>
       </c>
       <c r="H46" t="n">
-        <v>134.0072170928041</v>
+        <v>134.0072170928033</v>
       </c>
       <c r="I46" t="n">
         <v>60.31638474569324</v>
@@ -7818,13 +7818,13 @@
         <v>1539.525379860223</v>
       </c>
       <c r="N46" t="n">
-        <v>2056.439817551481</v>
+        <v>2056.439817551482</v>
       </c>
       <c r="O46" t="n">
-        <v>2399.319552696791</v>
+        <v>2545.065628633654</v>
       </c>
       <c r="P46" t="n">
-        <v>2805.830697949447</v>
+        <v>2951.57677388631</v>
       </c>
       <c r="Q46" t="n">
         <v>3014.874957973235</v>
@@ -7839,10 +7839,10 @@
         <v>2621.499897973779</v>
       </c>
       <c r="U46" t="n">
-        <v>2343.094047983012</v>
+        <v>2343.094047983011</v>
       </c>
       <c r="V46" t="n">
-        <v>2056.138539853443</v>
+        <v>2056.138539853442</v>
       </c>
       <c r="W46" t="n">
         <v>1784.112135439734</v>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K2" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>385.2554146752023</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -8145,13 +8145,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8291,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>385.2554146752023</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>56.52305090189816</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,25 +8455,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N8" t="n">
+        <v>424.2958575201044</v>
+      </c>
+      <c r="O8" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8528,25 +8528,25 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M9" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N9" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,22 +8613,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>152.0558298092333</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8707,10 +8707,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>595.9772936664676</v>
+        <v>454.8900548673073</v>
       </c>
       <c r="Q11" t="n">
-        <v>410.9317369165919</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8771,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>223.7905015624702</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>223.7905015624701</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8847,13 +8847,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>362.6701929250387</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645587</v>
@@ -8868,7 +8868,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>22.67343326006994</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>410.9317369165921</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>595.9772936664676</v>
       </c>
       <c r="Q14" t="n">
-        <v>410.9317369165919</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>150.1095294300802</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>223.7905015624701</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -9102,10 +9102,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>203.7988060944226</v>
       </c>
       <c r="Q16" t="n">
-        <v>110.1276606991519</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9178,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>469.4266523179868</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>595.9772936664676</v>
+        <v>454.8900548673073</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>5.426245334325131</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>223.7905015624701</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9342,7 +9342,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.6734332600704</v>
+        <v>22.67343326006994</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>614.2110142779284</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9415,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>454.8900548673073</v>
+        <v>236.3719220860551</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>595.9772936664676</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9479,7 +9479,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>601.0795479942537</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>68.90398696271336</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>223.7905015624701</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -9579,7 +9579,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>110.1276606991514</v>
+        <v>22.67343326006994</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>660.6118740209719</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>751.9080991609253</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1071.236641692945</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9658,10 +9658,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>5.426245334325245</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>368.4737856582251</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>217.7697614130943</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
@@ -9816,7 +9816,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>22.6734332600704</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>80.75159453254673</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>80.75159453254764</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>150.1095294300803</v>
       </c>
       <c r="K27" t="n">
-        <v>223.7905015624702</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -10053,7 +10053,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>110.127660699151</v>
+        <v>22.6734332600704</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10120,13 +10120,13 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>890.7123124512104</v>
+        <v>872.6153431239725</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>887.5909653394576</v>
       </c>
       <c r="O29" t="n">
-        <v>898.514993616621</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>141.8416940653533</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>223.7905015624702</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>696.310477543288</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>80.75159453254673</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,13 +10363,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>898.514993616621</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>173.9067760790699</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>696.3104775432881</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>223.7905015624704</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -10527,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>110.127660699151</v>
+        <v>22.6734332600704</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10591,22 +10591,22 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>580.5902745783952</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>561.053360650149</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>475.7792864716616</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>568.8560418155596</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>595.9772936664674</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>452.5895862181792</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>150.1095294300802</v>
       </c>
       <c r="K36" t="n">
-        <v>223.7905015624702</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,25 +10822,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>410.9317369165921</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>580.5902745783955</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>557.9320135383964</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>308.0379419136602</v>
       </c>
       <c r="P38" t="n">
-        <v>595.9772936664676</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>150.1095294300802</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>5.426245334325131</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11001,7 +11001,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.67343326006994</v>
+        <v>22.6734332600704</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>445.8556699329112</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>561.053360650149</v>
       </c>
       <c r="N41" t="n">
-        <v>557.9320135383963</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>568.8560418155596</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>319.7721746764955</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>150.1095294300803</v>
+        <v>150.1095294300802</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11235,10 +11235,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>203.7988060944226</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>22.6734332600704</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>614.2110142779285</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11314,13 +11314,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>11.54173225913337</v>
+        <v>454.8900548673073</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>150.1095294300803</v>
       </c>
       <c r="K45" t="n">
-        <v>223.7905015624702</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11469,13 +11469,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>276.6900740292107</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>22.67343326006994</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>162.711354693112</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>11.51840927295314</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>396.2852707095142</v>
       </c>
       <c r="H11" t="n">
-        <v>274.9879964839001</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>57.78140969865706</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>213.0575106034447</v>
       </c>
       <c r="U11" t="n">
-        <v>256.5421930678769</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>396.2852707095142</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>274.9879964839001</v>
+        <v>102.4709857056051</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>213.0575106034447</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>79.56845771887117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.432873279376906</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>274.9879964839001</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>57.78140969865706</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>213.0575106034447</v>
@@ -23794,13 +23794,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>72.69618139187747</v>
       </c>
     </row>
     <row r="18">
@@ -23986,7 +23986,7 @@
         <v>396.2852707095142</v>
       </c>
       <c r="H20" t="n">
-        <v>16.79534837424154</v>
+        <v>274.9879964839001</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>213.0575106034447</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.5421930678769</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>77.21781072544036</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>57.78140969865706</v>
       </c>
       <c r="T26" t="n">
         <v>213.0575106034447</v>
@@ -24502,7 +24502,7 @@
         <v>256.5421930678769</v>
       </c>
       <c r="V26" t="n">
-        <v>243.0924371212888</v>
+        <v>185.3110274226325</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>243.0924371212886</v>
+        <v>274.9879964839001</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24736,10 +24736,10 @@
         <v>213.0575106034447</v>
       </c>
       <c r="U29" t="n">
-        <v>256.5421930678769</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>224.6466337052668</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>274.9879964839001</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24973,16 +24973,16 @@
         <v>213.0575106034447</v>
       </c>
       <c r="U32" t="n">
-        <v>256.5421930678769</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>243.0924371212888</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>224.6466337052666</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,10 +25165,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>396.2852707095142</v>
+        <v>2.880692764551156</v>
       </c>
       <c r="H35" t="n">
         <v>274.9879964839001</v>
@@ -25207,10 +25207,10 @@
         <v>57.78140969865706</v>
       </c>
       <c r="T35" t="n">
-        <v>77.74730624118499</v>
+        <v>213.0575106034447</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.5421930678769</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>57.78140969865706</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>213.0575106034447</v>
       </c>
       <c r="U38" t="n">
         <v>256.5421930678769</v>
       </c>
       <c r="V38" t="n">
-        <v>259.2069781744588</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>2.836752835964944</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>412.8769526554605</v>
+        <v>424.6014259638123</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>259.2992671252177</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>339.9861507828933</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>274.9879964839001</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>57.78140969865706</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>213.0575106034447</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>465897.2640368461</v>
+        <v>465897.264036846</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>465897.264036846</v>
+        <v>465897.2640368459</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>465897.2640368461</v>
+        <v>465897.264036846</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>465897.264036846</v>
+        <v>465897.2640368459</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>603943.8000030632</v>
+        <v>603943.8000030631</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>603943.8000030631</v>
+        <v>603943.8000030629</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>603943.8000030632</v>
+        <v>603943.8000030629</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>465897.264036846</v>
+        <v>465897.2640368461</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>465897.264036846</v>
+        <v>465897.2640368461</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>465897.264036846</v>
+        <v>465897.2640368461</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>465897.264036846</v>
+        <v>465897.2640368459</v>
       </c>
     </row>
   </sheetData>
@@ -26316,22 +26316,22 @@
         <v>361899.4409260258</v>
       </c>
       <c r="C2" t="n">
-        <v>361899.4409260257</v>
+        <v>361899.4409260256</v>
       </c>
       <c r="D2" t="n">
-        <v>361899.4409260257</v>
+        <v>361899.4409260258</v>
       </c>
       <c r="E2" t="n">
-        <v>254867.5292774031</v>
+        <v>254867.5292774029</v>
       </c>
       <c r="F2" t="n">
         <v>254867.529277403</v>
       </c>
       <c r="G2" t="n">
-        <v>254867.529277403</v>
+        <v>254867.5292774029</v>
       </c>
       <c r="H2" t="n">
-        <v>254867.529277403</v>
+        <v>254867.5292774029</v>
       </c>
       <c r="I2" t="n">
         <v>361899.4409260257</v>
@@ -26340,10 +26340,10 @@
         <v>323606.4922012388</v>
       </c>
       <c r="K2" t="n">
-        <v>323606.4922012388</v>
+        <v>323606.4922012387</v>
       </c>
       <c r="L2" t="n">
-        <v>323606.4922012388</v>
+        <v>323606.4922012387</v>
       </c>
       <c r="M2" t="n">
         <v>254867.529277403</v>
@@ -26352,7 +26352,7 @@
         <v>254867.529277403</v>
       </c>
       <c r="O2" t="n">
-        <v>254867.5292774029</v>
+        <v>254867.529277403</v>
       </c>
       <c r="P2" t="n">
         <v>254867.5292774029</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>136498.4800234857</v>
+        <v>136498.4800234856</v>
       </c>
       <c r="J3" t="n">
-        <v>62964.67600115851</v>
+        <v>62964.67600115848</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26432,31 +26432,31 @@
         <v>60566.628502814</v>
       </c>
       <c r="G4" t="n">
-        <v>60566.62850281401</v>
+        <v>60566.62850281399</v>
       </c>
       <c r="H4" t="n">
-        <v>60566.62850281399</v>
+        <v>60566.628502814</v>
       </c>
       <c r="I4" t="n">
         <v>105300.2703017903</v>
       </c>
       <c r="J4" t="n">
+        <v>89295.85605471249</v>
+      </c>
+      <c r="K4" t="n">
         <v>89295.85605471251</v>
       </c>
-      <c r="K4" t="n">
-        <v>89295.85605471252</v>
-      </c>
       <c r="L4" t="n">
-        <v>89295.85605471252</v>
+        <v>89295.85605471251</v>
       </c>
       <c r="M4" t="n">
-        <v>60566.628502814</v>
+        <v>60566.62850281401</v>
       </c>
       <c r="N4" t="n">
-        <v>60566.628502814</v>
+        <v>60566.62850281401</v>
       </c>
       <c r="O4" t="n">
-        <v>60566.62850281399</v>
+        <v>60566.62850281401</v>
       </c>
       <c r="P4" t="n">
         <v>60566.628502814</v>
@@ -26478,13 +26478,13 @@
         <v>59424.78813722234</v>
       </c>
       <c r="E5" t="n">
-        <v>51797.78986392223</v>
+        <v>51797.78986392222</v>
       </c>
       <c r="F5" t="n">
-        <v>51797.78986392223</v>
+        <v>51797.78986392222</v>
       </c>
       <c r="G5" t="n">
-        <v>51797.78986392223</v>
+        <v>51797.78986392222</v>
       </c>
       <c r="H5" t="n">
         <v>51797.78986392222</v>
@@ -26493,22 +26493,22 @@
         <v>83006.71125571876</v>
       </c>
       <c r="J5" t="n">
-        <v>71841.05413342676</v>
+        <v>71841.05413342675</v>
       </c>
       <c r="K5" t="n">
-        <v>71841.05413342676</v>
+        <v>71841.05413342675</v>
       </c>
       <c r="L5" t="n">
-        <v>71841.05413342676</v>
+        <v>71841.05413342675</v>
       </c>
       <c r="M5" t="n">
-        <v>51797.78986392222</v>
+        <v>51797.78986392223</v>
       </c>
       <c r="N5" t="n">
-        <v>51797.78986392222</v>
+        <v>51797.78986392223</v>
       </c>
       <c r="O5" t="n">
-        <v>51797.78986392222</v>
+        <v>51797.78986392223</v>
       </c>
       <c r="P5" t="n">
         <v>51797.78986392222</v>
@@ -26524,46 +26524,46 @@
         <v>-76338.35368952906</v>
       </c>
       <c r="C6" t="n">
-        <v>65852.94697018072</v>
+        <v>65852.9469701807</v>
       </c>
       <c r="D6" t="n">
-        <v>65852.94697018078</v>
+        <v>65852.94697018084</v>
       </c>
       <c r="E6" t="n">
-        <v>-175473.6337801502</v>
+        <v>-175870.0482677378</v>
       </c>
       <c r="F6" t="n">
-        <v>142503.1109106667</v>
+        <v>142106.6964230793</v>
       </c>
       <c r="G6" t="n">
-        <v>142503.1109106668</v>
+        <v>142106.6964230792</v>
       </c>
       <c r="H6" t="n">
-        <v>142503.1109106668</v>
+        <v>142106.6964230792</v>
       </c>
       <c r="I6" t="n">
-        <v>37093.97934503102</v>
+        <v>37093.97934503108</v>
       </c>
       <c r="J6" t="n">
-        <v>99504.90601194103</v>
+        <v>99363.0802759233</v>
       </c>
       <c r="K6" t="n">
-        <v>162469.5820130995</v>
+        <v>162327.7562770817</v>
       </c>
       <c r="L6" t="n">
-        <v>162469.5820130995</v>
+        <v>162327.7562770817</v>
       </c>
       <c r="M6" t="n">
-        <v>142503.1109106668</v>
+        <v>142106.6964230793</v>
       </c>
       <c r="N6" t="n">
-        <v>142503.1109106668</v>
+        <v>142106.6964230792</v>
       </c>
       <c r="O6" t="n">
-        <v>142503.1109106667</v>
+        <v>142106.6964230793</v>
       </c>
       <c r="P6" t="n">
-        <v>142503.1109106667</v>
+        <v>142106.6964230792</v>
       </c>
     </row>
   </sheetData>
@@ -26798,13 +26798,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="E4" t="n">
-        <v>753.9548093211656</v>
+        <v>753.9548093211655</v>
       </c>
       <c r="F4" t="n">
-        <v>753.9548093211656</v>
+        <v>753.9548093211655</v>
       </c>
       <c r="G4" t="n">
-        <v>753.9548093211656</v>
+        <v>753.9548093211655</v>
       </c>
       <c r="H4" t="n">
         <v>753.9548093211655</v>
@@ -26822,13 +26822,13 @@
         <v>1083.613761122227</v>
       </c>
       <c r="M4" t="n">
-        <v>753.9548093211655</v>
+        <v>753.9548093211656</v>
       </c>
       <c r="N4" t="n">
-        <v>753.9548093211655</v>
+        <v>753.9548093211656</v>
       </c>
       <c r="O4" t="n">
-        <v>753.9548093211655</v>
+        <v>753.9548093211656</v>
       </c>
       <c r="P4" t="n">
         <v>753.9548093211655</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>513.3046281545484</v>
+        <v>513.304628154548</v>
       </c>
       <c r="J4" t="n">
         <v>240.6501811666176</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27396,7 +27396,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>73.13130200746645</v>
+        <v>330.3596186190185</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>100.8476018541754</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27596,10 +27596,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>93.19173634638182</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>9.465190568306582</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>177.6197095574227</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27684,7 +27684,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.357240807341213</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27776,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -27833,16 +27833,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>238.2995199562631</v>
+        <v>194.747601262452</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>155.5340356063365</v>
+        <v>196.9558765199559</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27864,7 +27864,7 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27873,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,7 +27912,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>32.45688140729075</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,16 +28067,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>100.8476018541754</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K2" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34774,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
@@ -34792,7 +34792,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>385.2554146752023</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -34865,13 +34865,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -35011,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>385.2554146752023</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>56.52305090189816</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N8" t="n">
+        <v>424.2958575201044</v>
+      </c>
+      <c r="O8" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35248,25 +35248,25 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M9" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N9" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35275,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>152.0558298092333</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35427,10 +35427,10 @@
         <v>185.098767505606</v>
       </c>
       <c r="P11" t="n">
-        <v>753.9548093211658</v>
+        <v>612.8675705220055</v>
       </c>
       <c r="Q11" t="n">
-        <v>529.5662720382011</v>
+        <v>670.653510837361</v>
       </c>
       <c r="R11" t="n">
         <v>239.8715154299402</v>
@@ -35488,10 +35488,10 @@
         <v>46.56456550435075</v>
       </c>
       <c r="J12" t="n">
-        <v>383.3702759968188</v>
+        <v>383.3702759968187</v>
       </c>
       <c r="K12" t="n">
-        <v>318.7062420685986</v>
+        <v>94.91574050612843</v>
       </c>
       <c r="L12" t="n">
         <v>127.6259264403914</v>
@@ -35500,7 +35500,7 @@
         <v>148.933436429884</v>
       </c>
       <c r="N12" t="n">
-        <v>152.8752613269116</v>
+        <v>152.8752613269118</v>
       </c>
       <c r="O12" t="n">
         <v>139.8509975075631</v>
@@ -35509,7 +35509,7 @@
         <v>112.2427549815525</v>
       </c>
       <c r="Q12" t="n">
-        <v>75.03130922373794</v>
+        <v>298.8218107862081</v>
       </c>
       <c r="R12" t="n">
         <v>154.8510918314255</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.83998601639969</v>
+        <v>122.2942134554803</v>
       </c>
       <c r="K13" t="n">
         <v>334.7865919418453</v>
       </c>
       <c r="L13" t="n">
-        <v>435.9340647666486</v>
+        <v>495.6980958496515</v>
       </c>
       <c r="M13" t="n">
         <v>541.3715988687093</v>
       </c>
       <c r="N13" t="n">
-        <v>522.1357956477359</v>
+        <v>522.1357956477361</v>
       </c>
       <c r="O13" t="n">
-        <v>493.5614253355277</v>
+        <v>493.5614253355279</v>
       </c>
       <c r="P13" t="n">
-        <v>410.6173184370268</v>
+        <v>410.6173184370264</v>
       </c>
       <c r="Q13" t="n">
-        <v>211.1558182058466</v>
+        <v>63.93755968376263</v>
       </c>
       <c r="R13" t="n">
         <v>0.9538174862894664</v>
@@ -35649,25 +35649,25 @@
         <v>532.8920034689003</v>
       </c>
       <c r="K14" t="n">
-        <v>139.7437950432371</v>
+        <v>550.6755319598292</v>
       </c>
       <c r="L14" t="n">
-        <v>173.3645347427702</v>
+        <v>173.36453474277</v>
       </c>
       <c r="M14" t="n">
         <v>192.9014486710166</v>
       </c>
       <c r="N14" t="n">
-        <v>196.0227957827692</v>
+        <v>196.022795782769</v>
       </c>
       <c r="O14" t="n">
         <v>185.098767505606</v>
       </c>
       <c r="P14" t="n">
-        <v>753.9548093211658</v>
+        <v>753.9548093211656</v>
       </c>
       <c r="Q14" t="n">
-        <v>529.5662720382011</v>
+        <v>118.6345351216091</v>
       </c>
       <c r="R14" t="n">
         <v>239.8715154299402</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.23762291802994</v>
+        <v>46.56456550435075</v>
       </c>
       <c r="J15" t="n">
-        <v>205.643113541836</v>
+        <v>383.3702759968187</v>
       </c>
       <c r="K15" t="n">
         <v>94.91574050612843</v>
@@ -35746,10 +35746,10 @@
         <v>112.2427549815525</v>
       </c>
       <c r="Q15" t="n">
-        <v>621.2322573369456</v>
+        <v>298.8218107862081</v>
       </c>
       <c r="R15" t="n">
-        <v>36.49475032199143</v>
+        <v>154.8510918314255</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>34.83998601639969</v>
+        <v>122.2942134554803</v>
       </c>
       <c r="K16" t="n">
         <v>334.7865919418453</v>
@@ -35813,19 +35813,19 @@
         <v>495.6980958496515</v>
       </c>
       <c r="M16" t="n">
-        <v>541.3715988687092</v>
+        <v>541.3715988687093</v>
       </c>
       <c r="N16" t="n">
-        <v>522.1357956477359</v>
+        <v>522.1357956477361</v>
       </c>
       <c r="O16" t="n">
-        <v>493.5614253355275</v>
+        <v>493.5614253355279</v>
       </c>
       <c r="P16" t="n">
-        <v>410.6173184370264</v>
+        <v>263.3990599149424</v>
       </c>
       <c r="Q16" t="n">
-        <v>151.3917871228446</v>
+        <v>211.1558182058466</v>
       </c>
       <c r="R16" t="n">
         <v>0.9538174862894664</v>
@@ -35883,7 +35883,7 @@
         <v>41.94047470242301</v>
       </c>
       <c r="J17" t="n">
-        <v>93.2408040215084</v>
+        <v>532.8920034689003</v>
       </c>
       <c r="K17" t="n">
         <v>139.7437950432371</v>
@@ -35892,22 +35892,22 @@
         <v>173.3645347427702</v>
       </c>
       <c r="M17" t="n">
-        <v>192.9014486710165</v>
+        <v>192.9014486710166</v>
       </c>
       <c r="N17" t="n">
-        <v>196.0227957827691</v>
+        <v>196.0227957827692</v>
       </c>
       <c r="O17" t="n">
-        <v>654.5254198235929</v>
+        <v>185.098767505606</v>
       </c>
       <c r="P17" t="n">
-        <v>753.9548093211656</v>
+        <v>612.8675705220055</v>
       </c>
       <c r="Q17" t="n">
         <v>670.653510837361</v>
       </c>
       <c r="R17" t="n">
-        <v>69.00882376018581</v>
+        <v>239.8715154299402</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>46.56456550435075</v>
       </c>
       <c r="J18" t="n">
-        <v>55.5335841117558</v>
+        <v>383.3702759968187</v>
       </c>
       <c r="K18" t="n">
         <v>94.91574050612843</v>
@@ -35980,10 +35980,10 @@
         <v>139.8509975075631</v>
       </c>
       <c r="P18" t="n">
-        <v>117.6690003158777</v>
+        <v>112.2427549815525</v>
       </c>
       <c r="Q18" t="n">
-        <v>621.2322573369457</v>
+        <v>298.8218107862081</v>
       </c>
       <c r="R18" t="n">
         <v>154.8510918314255</v>
@@ -36062,7 +36062,7 @@
         <v>410.6173184370264</v>
       </c>
       <c r="Q19" t="n">
-        <v>63.93755968376308</v>
+        <v>63.93755968376263</v>
       </c>
       <c r="R19" t="n">
         <v>0.9538174862894664</v>
@@ -36120,13 +36120,13 @@
         <v>41.94047470242301</v>
       </c>
       <c r="J20" t="n">
-        <v>532.8920034689003</v>
+        <v>93.24080402150841</v>
       </c>
       <c r="K20" t="n">
-        <v>139.7437950432371</v>
+        <v>753.9548093211655</v>
       </c>
       <c r="L20" t="n">
-        <v>173.3645347427702</v>
+        <v>173.3645347427703</v>
       </c>
       <c r="M20" t="n">
         <v>192.9014486710166</v>
@@ -36135,13 +36135,13 @@
         <v>196.0227957827692</v>
       </c>
       <c r="O20" t="n">
-        <v>639.9888223729133</v>
+        <v>421.4706895916611</v>
       </c>
       <c r="P20" t="n">
-        <v>157.9775156546982</v>
+        <v>753.9548093211656</v>
       </c>
       <c r="Q20" t="n">
-        <v>670.653510837361</v>
+        <v>118.6345351216091</v>
       </c>
       <c r="R20" t="n">
         <v>239.8715154299402</v>
@@ -36199,10 +36199,10 @@
         <v>46.56456550435075</v>
       </c>
       <c r="J21" t="n">
-        <v>55.53358411175579</v>
+        <v>383.3702759968187</v>
       </c>
       <c r="K21" t="n">
-        <v>94.91574050612846</v>
+        <v>94.91574050612843</v>
       </c>
       <c r="L21" t="n">
         <v>127.6259264403914</v>
@@ -36211,19 +36211,19 @@
         <v>148.933436429884</v>
       </c>
       <c r="N21" t="n">
-        <v>753.9548093211655</v>
+        <v>152.8752613269118</v>
       </c>
       <c r="O21" t="n">
-        <v>208.7549844702764</v>
+        <v>139.8509975075631</v>
       </c>
       <c r="P21" t="n">
         <v>112.2427549815525</v>
       </c>
       <c r="Q21" t="n">
-        <v>75.03130922373794</v>
+        <v>298.8218107862081</v>
       </c>
       <c r="R21" t="n">
-        <v>36.49475032199143</v>
+        <v>154.8510918314255</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.83998601639968</v>
+        <v>122.2942134554803</v>
       </c>
       <c r="K22" t="n">
-        <v>334.7865919418454</v>
+        <v>334.7865919418453</v>
       </c>
       <c r="L22" t="n">
-        <v>495.6980958496513</v>
+        <v>495.6980958496515</v>
       </c>
       <c r="M22" t="n">
         <v>541.3715988687093</v>
       </c>
       <c r="N22" t="n">
-        <v>522.1357956477359</v>
+        <v>522.1357956477361</v>
       </c>
       <c r="O22" t="n">
-        <v>493.5614253355275</v>
+        <v>493.5614253355279</v>
       </c>
       <c r="P22" t="n">
         <v>410.6173184370264</v>
       </c>
       <c r="Q22" t="n">
-        <v>151.3917871228441</v>
+        <v>63.93755968376263</v>
       </c>
       <c r="R22" t="n">
         <v>0.9538174862894664</v>
@@ -36357,19 +36357,19 @@
         <v>41.94047470242301</v>
       </c>
       <c r="J23" t="n">
-        <v>93.24080402150841</v>
+        <v>532.8920034689003</v>
       </c>
       <c r="K23" t="n">
-        <v>139.7437950432372</v>
+        <v>800.355669064209</v>
       </c>
       <c r="L23" t="n">
-        <v>173.3645347427702</v>
+        <v>173.36453474277</v>
       </c>
       <c r="M23" t="n">
-        <v>944.8095478319418</v>
+        <v>192.9014486710166</v>
       </c>
       <c r="N23" t="n">
-        <v>1267.259437475714</v>
+        <v>196.022795782769</v>
       </c>
       <c r="O23" t="n">
         <v>1175.179238788744</v>
@@ -36378,10 +36378,10 @@
         <v>994.6541569005531</v>
       </c>
       <c r="Q23" t="n">
-        <v>118.6345351216087</v>
+        <v>670.653510837361</v>
       </c>
       <c r="R23" t="n">
-        <v>69.00882376018581</v>
+        <v>239.8715154299398</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>46.56456550435072</v>
+        <v>20.23762291802994</v>
       </c>
       <c r="J24" t="n">
-        <v>55.53358411175577</v>
+        <v>383.3702759968187</v>
       </c>
       <c r="K24" t="n">
-        <v>94.91574050612843</v>
+        <v>94.91574050612837</v>
       </c>
       <c r="L24" t="n">
         <v>127.6259264403914</v>
@@ -36454,13 +36454,13 @@
         <v>139.8509975075631</v>
       </c>
       <c r="P24" t="n">
-        <v>117.6690003158777</v>
+        <v>112.2427549815525</v>
       </c>
       <c r="Q24" t="n">
-        <v>621.2322573369458</v>
+        <v>443.505094881963</v>
       </c>
       <c r="R24" t="n">
-        <v>154.8510918314255</v>
+        <v>36.49475032199143</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>34.83998601639951</v>
+        <v>122.2942134554804</v>
       </c>
       <c r="K25" t="n">
-        <v>275.022560858843</v>
+        <v>334.7865919418454</v>
       </c>
       <c r="L25" t="n">
         <v>495.6980958496515</v>
       </c>
       <c r="M25" t="n">
-        <v>541.371598868709</v>
+        <v>541.3715988687093</v>
       </c>
       <c r="N25" t="n">
-        <v>522.1357956477359</v>
+        <v>522.1357956477357</v>
       </c>
       <c r="O25" t="n">
         <v>493.5614253355279</v>
@@ -36536,7 +36536,7 @@
         <v>410.6173184370264</v>
       </c>
       <c r="Q25" t="n">
-        <v>211.1558182058461</v>
+        <v>63.93755968376308</v>
       </c>
       <c r="R25" t="n">
         <v>0.9538174862894664</v>
@@ -36600,7 +36600,7 @@
         <v>982.5218677282654</v>
       </c>
       <c r="L26" t="n">
-        <v>173.36453474277</v>
+        <v>254.1161292753168</v>
       </c>
       <c r="M26" t="n">
         <v>192.9014486710166</v>
@@ -36609,7 +36609,7 @@
         <v>196.0227957827692</v>
       </c>
       <c r="O26" t="n">
-        <v>265.8503620381534</v>
+        <v>185.0987675056058</v>
       </c>
       <c r="P26" t="n">
         <v>994.6541569005531</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>46.56456550435074</v>
+        <v>20.23762291802994</v>
       </c>
       <c r="J27" t="n">
-        <v>383.3702759968187</v>
+        <v>205.643113541836</v>
       </c>
       <c r="K27" t="n">
-        <v>318.7062420685986</v>
+        <v>94.91574050612843</v>
       </c>
       <c r="L27" t="n">
-        <v>127.6259264403914</v>
+        <v>127.6259264403913</v>
       </c>
       <c r="M27" t="n">
         <v>148.933436429884</v>
       </c>
       <c r="N27" t="n">
-        <v>152.8752613269119</v>
+        <v>152.8752613269118</v>
       </c>
       <c r="O27" t="n">
         <v>139.8509975075631</v>
@@ -36694,10 +36694,10 @@
         <v>112.2427549815525</v>
       </c>
       <c r="Q27" t="n">
-        <v>75.03130922373794</v>
+        <v>621.2322573369458</v>
       </c>
       <c r="R27" t="n">
-        <v>154.8510918314255</v>
+        <v>36.49475032199143</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>34.83998601639969</v>
+        <v>122.2942134554804</v>
       </c>
       <c r="K28" t="n">
-        <v>334.7865919418454</v>
+        <v>334.7865919418452</v>
       </c>
       <c r="L28" t="n">
         <v>495.6980958496515</v>
@@ -36764,16 +36764,16 @@
         <v>541.3715988687093</v>
       </c>
       <c r="N28" t="n">
-        <v>522.1357956477359</v>
+        <v>522.1357956477357</v>
       </c>
       <c r="O28" t="n">
-        <v>493.5614253355277</v>
+        <v>493.5614253355279</v>
       </c>
       <c r="P28" t="n">
         <v>410.6173184370264</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.3917871228437</v>
+        <v>63.93755968376308</v>
       </c>
       <c r="R28" t="n">
         <v>0.9538174862894664</v>
@@ -36840,13 +36840,13 @@
         <v>173.3645347427702</v>
       </c>
       <c r="M29" t="n">
+        <v>1065.516791794989</v>
+      </c>
+      <c r="N29" t="n">
         <v>1083.613761122227</v>
       </c>
-      <c r="N29" t="n">
-        <v>196.0227957827692</v>
-      </c>
       <c r="O29" t="n">
-        <v>1083.613761122227</v>
+        <v>185.0987675056058</v>
       </c>
       <c r="P29" t="n">
         <v>157.977515654698</v>
@@ -36855,7 +36855,7 @@
         <v>670.653510837361</v>
       </c>
       <c r="R29" t="n">
-        <v>210.8505178255391</v>
+        <v>239.8715154299398</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.23762291802994</v>
+        <v>46.56456550435075</v>
       </c>
       <c r="J30" t="n">
-        <v>55.53358411175577</v>
+        <v>383.3702759968187</v>
       </c>
       <c r="K30" t="n">
-        <v>94.91574050612843</v>
+        <v>318.7062420685986</v>
       </c>
       <c r="L30" t="n">
         <v>127.6259264403914</v>
@@ -36922,7 +36922,7 @@
         <v>148.933436429884</v>
       </c>
       <c r="N30" t="n">
-        <v>849.1857388701999</v>
+        <v>152.8752613269119</v>
       </c>
       <c r="O30" t="n">
         <v>139.8509975075631</v>
@@ -36934,7 +36934,7 @@
         <v>75.03130922373794</v>
       </c>
       <c r="R30" t="n">
-        <v>36.49475032199143</v>
+        <v>154.8510918314255</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>122.2942134554803</v>
+        <v>122.2942134554804</v>
       </c>
       <c r="K31" t="n">
         <v>334.7865919418452</v>
@@ -37068,13 +37068,13 @@
         <v>41.94047470242301</v>
       </c>
       <c r="J32" t="n">
-        <v>93.24080402150841</v>
+        <v>532.8920034689003</v>
       </c>
       <c r="K32" t="n">
-        <v>982.5218677282655</v>
+        <v>982.5218677282654</v>
       </c>
       <c r="L32" t="n">
-        <v>173.36453474277</v>
+        <v>254.1161292753168</v>
       </c>
       <c r="M32" t="n">
         <v>192.9014486710166</v>
@@ -37083,13 +37083,13 @@
         <v>196.0227957827692</v>
       </c>
       <c r="O32" t="n">
-        <v>1083.613761122227</v>
+        <v>185.0987675056058</v>
       </c>
       <c r="P32" t="n">
         <v>994.6541569005531</v>
       </c>
       <c r="Q32" t="n">
-        <v>292.541311200679</v>
+        <v>670.653510837361</v>
       </c>
       <c r="R32" t="n">
         <v>239.8715154299398</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.23762291802994</v>
+        <v>46.56456550435075</v>
       </c>
       <c r="J33" t="n">
-        <v>55.53358411175577</v>
+        <v>383.3702759968187</v>
       </c>
       <c r="K33" t="n">
-        <v>94.91574050612843</v>
+        <v>94.91574050612837</v>
       </c>
       <c r="L33" t="n">
         <v>127.6259264403914</v>
@@ -37159,7 +37159,7 @@
         <v>148.933436429884</v>
       </c>
       <c r="N33" t="n">
-        <v>849.1857388701999</v>
+        <v>152.8752613269118</v>
       </c>
       <c r="O33" t="n">
         <v>139.8509975075631</v>
@@ -37168,10 +37168,10 @@
         <v>112.2427549815525</v>
       </c>
       <c r="Q33" t="n">
-        <v>75.03130922373794</v>
+        <v>298.8218107862083</v>
       </c>
       <c r="R33" t="n">
-        <v>36.49475032199143</v>
+        <v>154.8510918314255</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>34.83998601639969</v>
+        <v>122.2942134554804</v>
       </c>
       <c r="K34" t="n">
         <v>334.7865919418452</v>
       </c>
       <c r="L34" t="n">
-        <v>495.6980958496514</v>
+        <v>495.6980958496515</v>
       </c>
       <c r="M34" t="n">
         <v>541.3715988687093</v>
       </c>
       <c r="N34" t="n">
-        <v>522.1357956477359</v>
+        <v>522.1357956477357</v>
       </c>
       <c r="O34" t="n">
-        <v>493.5614253355275</v>
+        <v>493.5614253355279</v>
       </c>
       <c r="P34" t="n">
-        <v>410.6173184370268</v>
+        <v>410.6173184370264</v>
       </c>
       <c r="Q34" t="n">
-        <v>151.3917871228437</v>
+        <v>63.93755968376308</v>
       </c>
       <c r="R34" t="n">
         <v>0.9538174862894664</v>
@@ -37305,28 +37305,28 @@
         <v>41.94047470242301</v>
       </c>
       <c r="J35" t="n">
-        <v>93.24080402150841</v>
+        <v>93.2408040215084</v>
       </c>
       <c r="K35" t="n">
         <v>139.7437950432371</v>
       </c>
       <c r="L35" t="n">
-        <v>753.9548093211654</v>
+        <v>173.3645347427702</v>
       </c>
       <c r="M35" t="n">
+        <v>192.9014486710165</v>
+      </c>
+      <c r="N35" t="n">
+        <v>196.0227957827691</v>
+      </c>
+      <c r="O35" t="n">
+        <v>753.9548093211655</v>
+      </c>
+      <c r="P35" t="n">
         <v>753.9548093211656</v>
       </c>
-      <c r="N35" t="n">
-        <v>671.8020822544308</v>
-      </c>
-      <c r="O35" t="n">
-        <v>185.0987675056058</v>
-      </c>
-      <c r="P35" t="n">
-        <v>157.977515654698</v>
-      </c>
       <c r="Q35" t="n">
-        <v>118.6345351216091</v>
+        <v>571.2241213397883</v>
       </c>
       <c r="R35" t="n">
         <v>69.00882376018581</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>46.56456550435075</v>
+        <v>20.23762291802994</v>
       </c>
       <c r="J36" t="n">
-        <v>383.3702759968187</v>
+        <v>205.643113541836</v>
       </c>
       <c r="K36" t="n">
-        <v>318.7062420685987</v>
+        <v>94.91574050612843</v>
       </c>
       <c r="L36" t="n">
         <v>127.6259264403914</v>
@@ -37396,7 +37396,7 @@
         <v>148.933436429884</v>
       </c>
       <c r="N36" t="n">
-        <v>152.8752613269116</v>
+        <v>152.8752613269118</v>
       </c>
       <c r="O36" t="n">
         <v>139.8509975075631</v>
@@ -37405,10 +37405,10 @@
         <v>112.2427549815525</v>
       </c>
       <c r="Q36" t="n">
-        <v>75.03130922373794</v>
+        <v>621.2322573369456</v>
       </c>
       <c r="R36" t="n">
-        <v>154.8510918314255</v>
+        <v>36.49475032199143</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>122.2942134554803</v>
+        <v>122.2942134554804</v>
       </c>
       <c r="K37" t="n">
-        <v>334.7865919418453</v>
+        <v>334.7865919418452</v>
       </c>
       <c r="L37" t="n">
         <v>495.6980958496515</v>
@@ -37542,25 +37542,25 @@
         <v>41.94047470242301</v>
       </c>
       <c r="J38" t="n">
-        <v>532.8920034689003</v>
+        <v>93.2408040215084</v>
       </c>
       <c r="K38" t="n">
-        <v>550.6755319598292</v>
+        <v>139.7437950432371</v>
       </c>
       <c r="L38" t="n">
-        <v>173.36453474277</v>
+        <v>753.9548093211656</v>
       </c>
       <c r="M38" t="n">
-        <v>192.9014486710166</v>
+        <v>192.9014486710164</v>
       </c>
       <c r="N38" t="n">
-        <v>196.022795782769</v>
+        <v>753.9548093211656</v>
       </c>
       <c r="O38" t="n">
-        <v>185.098767505606</v>
+        <v>493.136709419266</v>
       </c>
       <c r="P38" t="n">
-        <v>753.9548093211656</v>
+        <v>157.977515654698</v>
       </c>
       <c r="Q38" t="n">
         <v>118.6345351216091</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>46.56456550435075</v>
+        <v>20.23762291802994</v>
       </c>
       <c r="J39" t="n">
-        <v>55.53358411175579</v>
+        <v>205.643113541836</v>
       </c>
       <c r="K39" t="n">
-        <v>94.91574050612846</v>
+        <v>94.91574050612843</v>
       </c>
       <c r="L39" t="n">
         <v>127.6259264403914</v>
@@ -37639,13 +37639,13 @@
         <v>139.8509975075631</v>
       </c>
       <c r="P39" t="n">
-        <v>117.6690003158777</v>
+        <v>112.2427549815525</v>
       </c>
       <c r="Q39" t="n">
-        <v>621.2322573369457</v>
+        <v>621.2322573369456</v>
       </c>
       <c r="R39" t="n">
-        <v>154.8510918314255</v>
+        <v>36.49475032199143</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37721,7 +37721,7 @@
         <v>410.6173184370264</v>
       </c>
       <c r="Q40" t="n">
-        <v>63.93755968376263</v>
+        <v>63.93755968376308</v>
       </c>
       <c r="R40" t="n">
         <v>0.9538174862894664</v>
@@ -37779,25 +37779,25 @@
         <v>41.94047470242301</v>
       </c>
       <c r="J41" t="n">
-        <v>93.24080402150841</v>
+        <v>532.8920034689003</v>
       </c>
       <c r="K41" t="n">
-        <v>139.7437950432371</v>
+        <v>585.5994649761483</v>
       </c>
       <c r="L41" t="n">
-        <v>173.3645347427702</v>
+        <v>173.36453474277</v>
       </c>
       <c r="M41" t="n">
-        <v>192.9014486710165</v>
+        <v>753.9548093211656</v>
       </c>
       <c r="N41" t="n">
-        <v>753.9548093211654</v>
+        <v>196.0227957827692</v>
       </c>
       <c r="O41" t="n">
-        <v>753.9548093211656</v>
+        <v>185.0987675056058</v>
       </c>
       <c r="P41" t="n">
-        <v>477.7496903311935</v>
+        <v>157.977515654698</v>
       </c>
       <c r="Q41" t="n">
         <v>118.6345351216091</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.23762291802993</v>
+        <v>20.23762291802994</v>
       </c>
       <c r="J42" t="n">
         <v>205.643113541836</v>
@@ -37955,10 +37955,10 @@
         <v>493.5614253355279</v>
       </c>
       <c r="P43" t="n">
-        <v>263.3990599149424</v>
+        <v>410.6173184370264</v>
       </c>
       <c r="Q43" t="n">
-        <v>211.1558182058466</v>
+        <v>63.93755968376308</v>
       </c>
       <c r="R43" t="n">
         <v>0.9538174862894664</v>
@@ -38019,10 +38019,10 @@
         <v>532.8920034689003</v>
       </c>
       <c r="K44" t="n">
-        <v>753.9548093211656</v>
+        <v>139.7437950432371</v>
       </c>
       <c r="L44" t="n">
-        <v>173.36453474277</v>
+        <v>173.3645347427702</v>
       </c>
       <c r="M44" t="n">
         <v>192.9014486710166</v>
@@ -38031,16 +38031,16 @@
         <v>196.0227957827692</v>
       </c>
       <c r="O44" t="n">
-        <v>185.0987675056058</v>
+        <v>185.098767505606</v>
       </c>
       <c r="P44" t="n">
-        <v>169.5192479138314</v>
+        <v>612.8675705220055</v>
       </c>
       <c r="Q44" t="n">
-        <v>670.6535108373614</v>
+        <v>670.653510837361</v>
       </c>
       <c r="R44" t="n">
-        <v>69.00882376018581</v>
+        <v>239.8715154299402</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>46.56456550435075</v>
+        <v>20.23762291802993</v>
       </c>
       <c r="J45" t="n">
-        <v>383.3702759968187</v>
+        <v>205.643113541836</v>
       </c>
       <c r="K45" t="n">
-        <v>318.7062420685987</v>
+        <v>94.91574050612843</v>
       </c>
       <c r="L45" t="n">
         <v>127.6259264403914</v>
@@ -38107,7 +38107,7 @@
         <v>148.933436429884</v>
       </c>
       <c r="N45" t="n">
-        <v>152.8752613269116</v>
+        <v>152.8752613269118</v>
       </c>
       <c r="O45" t="n">
         <v>139.8509975075631</v>
@@ -38116,10 +38116,10 @@
         <v>112.2427549815525</v>
       </c>
       <c r="Q45" t="n">
-        <v>75.03130922373794</v>
+        <v>621.2322573369456</v>
       </c>
       <c r="R45" t="n">
-        <v>154.8510918314255</v>
+        <v>36.49475032199143</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38186,16 +38186,16 @@
         <v>541.3715988687093</v>
       </c>
       <c r="N46" t="n">
-        <v>522.1357956477357</v>
+        <v>522.1357956477361</v>
       </c>
       <c r="O46" t="n">
-        <v>346.343166813444</v>
+        <v>493.5614253355279</v>
       </c>
       <c r="P46" t="n">
-        <v>410.6173184370268</v>
+        <v>410.6173184370264</v>
       </c>
       <c r="Q46" t="n">
-        <v>211.1558182058466</v>
+        <v>63.93755968376263</v>
       </c>
       <c r="R46" t="n">
         <v>0.9538174862894664</v>
